--- a/regex_cleaning/result.xlsx
+++ b/regex_cleaning/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="1849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="1897">
   <si>
     <t>[00:01:53.02]</t>
   </si>
@@ -5092,475 +5092,619 @@
     <t xml:space="preserve"> [all sign off, video ends]</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cause I turned and my husband turns the TV up so loud it's, [Renee chuckles] it's crazy.  [6-second pause] I guess I'm wa-I'm alm-finished almost all-I'm done with Lesson 3 in (redefinish) everybody's wayead of me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> We'll have to ask where Laura is cause I was-in her class last week and, she was, just finish-just starting lesson 2,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That was at the end of (last week) so she might be at, 4 or 5 you know,, so,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Goead. [yawns, Renee goes to bookcase and returns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I have n-I, doesn't surprise me at all, and you taught all day at u-at-in-at the Connecticut Science Center how'd it go it sounds like it was great,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> so I like literally took like SmartBoard pen and like dropped it and they were like ye[all chuckle]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You know, it was-really,-tough in those classes, and like, you could just see it was heavy for them, thinking about it, but I feel like they felt like, at the end, you were there-like they-all got there,, it was more enjoyable</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yewe did the-the amplitude and then the start of frequenc-like</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeyou had tons of-you had a ton of testing huh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> There's a lot that's happening in Bend 1 to develop these a-amplitude and frequency and to-connect it back and,, b-right a-a-and I mean Day 1 u-lesson 1 is like three or four le-you know so I-I think there's bend 2 is tends to be a little faster</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> We've t-we've trimmed one-one day off of, the first lesson in bend 3 though so,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I-I talked to people in the district and apparently, my guy was talking to your guy your guy being Brian,, do I have-can I collect data yet, can I, send you guys stuff,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I mean-I mean there's this-there's this tension right cause you want-e-every kid to experience the curriculyou want it to go w-you know, you're doing this no matter what whether we can, study the student work or not so,, yejust-as long as it's not interfering with your teaching like you know and you're willing to collect some stuff, and then you feel like you can share with us later, then that's great. [Jamie gives an A-Okay sign, 8-second pause]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yewhere's Wanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeshe posted-yeevery time I-I we do our little agenda we sort of time things out, I do east coast time and sometimes Michael goes back in and changes it to-to central time [scattered chuckles]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Maybe, j-is everyone on, they can-take a peek at some of people's postings, [4-second pause] Oh and we're on session 3. [nodding]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> for-for posting, it's always helpful to be able to look at thoseead of time,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> but-so now I only have one,- so we'll just give you the sort of similar situation this-tonight we'll do a little troubleshooting, we'll get to hear about some cool stuff you're doing, we're gonna focus around, the question of,, how do we help-how do (we aware) students to motivate the next steps, right next steps in investigation so that's what we asked you to post about so we'll talk about that in step 2,, and, we'll continue that in steps 3 and 4 where we're gonna think a little about,, some of the talk moves and strategic moves that we can make to help spread ideas around the group so more kids are involved and that goes with any of the questions and then in the last step where we'll spend the bulk of our time we're gonna-, look at bend 2 sort of lookingead looking forward and thinking about how we can help motivate from one lesson to the ot-to the-to the next.  And thinking about what we can be thinking about as teachers so, that's sort of the plan for tonight and we'll start with, troubleshooting (to) see if there's anything that came up it looks like there were-, two things that came up one, u-was this idea about, the model trackers feeling a little sticky, Laura, for you</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So I'm finding is, we have our scientist meetings, they're doing great we can model, they can understand but when I say to them, we get the tracker out and I'm like okay so what are the-things that we've learned they're-I don't know if it's the format of the tracker or the,, they-they just freeze they just freeze and are like I don't know what you want me to do I don't know, what we figured out I mean,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I think what I've decided that it does so like I'll experience is similar to what you're saying is that when we're talking they'll come up with ideas they have things that they wanna say, and then when we go to write it in the tracker and I don't know if it's just because of the way in which, it's being done right like so it's not, on my chart paper it's in this like googley docy-type thing that I'm typing in and so I don't know if, they feel like, if that's the structure of that that makes them hesitant or wanna say something and so that might just be in, the way that I presented it cause I think they see it as like notes almost because I heard somebody refer to it as they were like oh I didn't get the notes from yesterday and I was like notes from yesterday like, what are you talking about like I didn't know what they were talking about cause I was like notes what notes and they were like, from yesterday and I was like can you show me what you're talking about and they like brought the paper over and I was like, oh-oh those aren't notes like that's just what we figured out like when we finished the lesson and they were like, but I don't have the notes, like I think they think that like everybody's is supposed to be the same like we should all have the same information, and I think that might be where the hesitation is coming from, not like they don't know what to put there cause yethese are things that they just told me </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ye[chuckles]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and I'm like all right so what do we-you know like and we're like-typing it someone's saying it I'm just typing it up there you know cause , even the-the language won't be exactly what's like on the-the teacher document version of it, that I like look at to be like okay what are we supposed to be writing about you know like in my head I'm like I wanna make sure we're talking about those things,, but I feel like, it's just-I think that's my fault because of like I'm like all right let's pull these out and they are like, okay I need to make sure I write what you have in yours and they haven't, I don't think they own it as like their document yet, and it might jus-it's prob-I'm taking the fault because like that's how we've been doing it you know like and so like for them it's like all right we're done we need to like get the notes from this section like what we learned you know like let's write that down but they think it should be like the same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> think I'm gonna go to next, yeI wanna make just a big poster every day like all right what did we come up with today and what do we wanna walk away with and I'm just gonna stick it on the wall with the nine thousand other things on my wall, and we'll see where we go from there.  [nodding]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I-yeI mean-and maybe they first, do some thinking in their notebooks?  Before they-so that they have stuff to contribute to that discussion or whatever and then they won't feel like it's so formal I don't know</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> freaks them out,, and just do it-all right so tell me what did we walk away with today what do we know.  And try that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I, there's usually I-I know you're one to one I think Laura like they,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Goead Gerard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okay, [clears throat] I'm glad you guys brought this up in conversation because, w-I just had a conversation with my colleagues today and we were like, why can't students remember, things, like why don't things transfer from one day to the next, or from one week to the next, and I just thought of an idea, what i-cause I think you guys are asking us for how can we you know find more innovative ways to improve this unit and-I'm wondering if it would engage students more if it was more like a comic strip, to where-there were-it was a little more graphic to go along with just writing text because, I agree that the format itself looks kinda boring, so-another idea too is to maybe have-like pairs of students be responsible for just being the ones that, summarize what we learn each day, and then-start off the next lesson by checking in with all right, what did we add to what we learned yesterday.  You see what I'm saying?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> well there could be a shared docu-it could be a shared document but instead of, just making it part of the routine where we say all right what did we learn today, you can have like kids take turns in pairs being the ones responsible for that, so that each-you know it's just-I don't know I was just thinking that that's something that could be-um, to spice it up a little bit, like kids can look forward to being the ones to-to, summarize for the whole class but make it more of a, I don't know some kind of graphic format, [3-second pause]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeor it can even be a-a home fun assignment you know a,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YeI think I'm just gonna go big pieces of paper.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> troubleshooting-comment about, engagement Jamie do you wanna say something, about that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YeI mean I guess-it-it's-it's interesting cause like I had my yellow-I had three classes that are yellow that I had today and they're like way, like I go home on yellow days and I'm like [makes uplifting gesture] and then I go home on blue days and I'm like Ahh [clutches head], and I just-I-I don't think it's an issue of like, high kids versus low kids but-just some kids that are just like, not into school, not into science, they don't quite like, just kinda like, in la la land and like, they're not-they're not diriving whereas like, half my classes I would say the kids like they get it, we're asking the questions, we're like-doing these investigations that we thought of on the first day, it's getting better I think but,, I just have those couple of kids that are like just, dragging-dragging their feet.  Um. [3.5-second pause]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um, well o-I really liked the, connection the textual connecstion-connection with insects I think it was the end of lesson 3, and we actually have-a-a couple lizards as class pets and, we feed em crickets so, and then kids have been talking about finding dead, cicadas all over the sidewalks this time of the year so, actually you know we took some of those and-and looked at them under digital microscopes, as a whole class and it-it really, enhanced that lesson and-and, brought in a lot more connections and-to the outside world by, looking at the actual, comb structures of the wings of-of the crickets and the layers-the membrane layers of the wings of, the cicadas it just, it really brought more into the lesson by them being able to see it for themselves as oppposed to just sitting on a-on the black and white text, of the article.  So I don't know I-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I-I wouldn't necessarily call them less engaged students but I think what helps is, constantly going back to like posters we've made as a class, to kinda be like hey let's look are there any more of these investigations that we've already done like so yesterday, cause I was not in the room today like so I wasn't at school today and so yesterday I was moving one of the chart papers to like write something on it for them-and I noticed I was like oh we should go back to this list cause I've noticed a few more investigations that we've done, that we-like didn't like check off that they-they should know like hey look this was your list and like, we can check off a few more of these, and another thing that I did cause we had like two-there's like two posters going for each class about like, investigations they wanted to do, and so with one of the posters, what we had gotten done was like, lo-when we first looked at instruments and things like that we were like checking those things off and then they still had these other investigations that like were things that I knew were coming, cause someone had some-had something about like a speaker and something about water and so like I knew they were coming but we weren't getting to them right then and so I had the students, we like looked at that list of investigations and I was like let's see if these are things we wanna do now if they're gonna help us with like this part A that we're trying to figure out or if they'll help us with another part and so we went and like labeled the investigations like where does this one fit and they were like oh that's  like a part B or that's a part C kind of a thing so they could-I think it helped them see like, as we were like checking things off like for kids to be like, but I totally wanted to know what's gonna happen with water and we didn't do that and it's like well we'll get to that but like that's gonna help us maybe with like travel or like something else so like when we labeled them in a way that they could see okay we're gonna get to know later they were like okay with accepting that like </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> we hadn't done (it) yet, and so I think-one of the things I wanna do tomorrow is I wanna like pull that other poster back out that like-we didn't label in that way and check off what we've done and then see like hey are there some other things that we still need to and what will they help us figure out so kinda keep-reconnecting them back to like why we had those questions and I noticed, cause I-something I said to the class that I was talking about like so-oh someone was like, like are we-they were asking like were we done or how-how much longer we have in the unit [scattered chuckles] and I was like well we still have a lot to figure out you know I was like we have a ton of questions we haven't answered and we haven't like taken any quesitons off yet even though there are some that we can and so what I've noticed now is like on the way out cause-when you come in or out of the classroom you're gonna walk right by like the driving question board and I wa-I'll see kids like periodically like over there like looking at like post it notes trying to be like are we even on this list like whe-where are we and so like I think just like re-engaging them with stuff that they had a part in creating, helps them kind of like stay motivated, so even if they-weren't they're like oh okay so the reason we didn't look at the water yet is cause it's gonna help us with like something else. [shrugs] I don't know I think at least that's been</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Michael you were gonna say one thing before we--you wanted to goead</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I just as-I  ju-no I like that you're summarizing cause I feel like we can use this again in step 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No not a question but my class did have a meeting at the driving question board I had each class go up to the driving question board I had each class go up to the questions for part A and say have we answered this question and we had a discussion that way, and the kids enjoyed doing that.  And I will continue to do that.  So.  Yeah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [holding pen in front of camera] Um.  for those of us in Chicago have you guys ever heard of Andy's music, Andy's music store?  It's a store in Rosco village I'm trying to think of, it's located, on Ellston well actually that's not Rosco village but it's-it's one of the few music stores in Chicago where they have instuments from all over the world and-and I real-it-it's almost like a musewalking through there and the instruments aren't that expensive, but I'm gonna go back and-and now that I think I'm gonna go back and purchase one it-it almost looks like a glass bowl, where you-wave a wand in the middle of it but you're not even touching the bowl and it makes this really, low-pitched humming sound,, as-as-and it's a musical instrument I think it's from Peru or somewhere I can't recall exactly but, I mean there's just another tie-in where kids could really be wondering wait a minute, you're not even touching it you're not even applying force and that's making sound, so-I don't know just-other types of musical instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> But I-I do feel like Gerard [echoing] I think we're starting to bring in more of that and I-I bring in a speaker can we all go to the auditoriI'm the sound guy for the play I spent four hours about sound I-I feel like they although there's some that aren't there they-as a whole they're kind of more starting to get, how this works as like, a system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a-u-er-goead Michael did you have something before we go to-hearing about coherence</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I was like it s-sounds like that's a noticing that Jamie had about some elements of coherence that, d-wanted to share with the group the kids are kind of-and I heard her say like kind of-coming around to be like hey I gotta help-pull the wagon a little bit and I get what that involves [echo], maybe just go around and-have each person share sort of a thing that, a noticing related to coherence,.  And if you remember sort of this-this step 2 now talking sticks if you all go to step 2 and remind ourselves that we wanna make sure that we get a noticing from everyone so get a lot of opportunities to riff in different directions, on a second round where we can then comment or build off of or-kind of think about how those ideas can connect together.  Um. Maybe I-undercut Jamie's-note-maybe Jamie had a different one-noticing but it felt like it was a sort of noticing about coherency.  So-throw it back to you Jamie is there more you wanna say about that or, did you wanna pass it to someone else</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Good ca-that's a good point, right yewe do wanna think at a-at a grain size of like the biggest jumps in coherence are like, we at wrap up let's say you know lesson 2 and we're trying to get to lesson 3 or, 5 to 6 and, and some lessons it may be easier to s-to bring the kids along for the ride and others you might be like ooh that was choppy that like I-I really felt like I was pulling, and I didn't have the kids with me for the rationale and so if you wanna comment on any of those that-you've noticed, I think it'd be useful for the group to kinda then see that space and think about like how to work with those challenges and opportunities for really helping kids connect one lesson to the next whether it's at the end of one lesson or the start of another.  Um [nods] and</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um, I-I can start,, I never have a talking stick but,, so I, actually got, I have lesson six, papers in from of me that I just got from my students and so like they just finished,, the student activity sheet and so the last questions on the back are always like next steps like you know what did we do and so like and-for-throughout lesson six in particular, it's having them go back to the needle, and the record and starting to think about, how like what they figure out connects to, how we might be able to hear different pitches and different volumes on the record and then like how could we go about investigating that and so, what I noticed just looking at like the first few when I was like looking at them, is that s-a lot of students are saying, well, so there must be something on the surface that's causing the different pitches like we have those different kind of like lengths and bars and things like that,, and then the things that they wanna, start investigating they're like, maybe we could zoom in some more to see what the needle does, type of a thing, so they kinda wanna like go back to where we-which was I was like oh good you wanna do what we're gonna do anywayh!  Um but it's good to like see that that's kinda where they are.  (Yeah) [7-second pause] Um</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> oh yeI was like I thought I heard the time or something.  Sure!  Um, (I don't know), Wanda? [chuckles]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um, my students are not coming up with questions very easily so if you have a strategy to get from there that would be helpful.  That's-they're not-sharing a whole lot one student said well we can go on the Internet and research blblblyou know, so.  They're not into, [indistinct]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> All right, I was gonna say that I was having,, trouble with them wanting to, bond to the next lesson with thinking back moving forward, my group is, students who have been together for, quite a few years, they call them the ace studnts, so, they're very, at-they're not like my other class put it that way but they know a lot [chuckles], and so they would-felt like they knew everything about sound, and, I ended up having to, when we started with instruments, to get them to (walk) move forward see how it worked with instruments,, I had em draw how it worked with the drum, first, before they had to play with cause they-they were so sure they know it all, so they made their model, their model drawing, some show this sequence others just the drum, then, (whose) the drand we do-show the slow motion of all of them, and, that they got (hooked in and) wanna know more they wanted to go back to their model system and [indistinct-interference] [chuckles] because they could see they didn't know it all and then they wanted to do more they wanted to move forward more into the other instruments and, it-kind of hooked them into let's go farther, let's find more, what's next, because they were just sure they knew it all. [2-second pause] [laughs] And they did some great drawings with a lot on it but they didn't know all [chuckles] so, now they're like, wanting to go far forward, I hate to say I had to kinda like-it sounds like I had to tear em down to build them up, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And they were, okay, all right [indistinct]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oh.  Thank you,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So-I wanted to bring up an issue that came about and forgive me if we talked about this during our last meeting but it was during, lesson 4 with the laser, I'm not 100% sure my students got the most out of what was supposed to be transferred into lesson 5 from that.  For example, some of em were still skeptical that all objects when they vibrate and make sound they-there's actually some elasticity to it, so-did anybody else experience, that same problem to where you're not sure, if you, answered that question or showed that through that demonstration? [1.5-second pause]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [nodding] YeI-I kind of addressed it in lesson 5, with the big stick and coming back to the instrument and saying (look,) and what I also did is when they did the,, Gerard have your kids done the vibrating moon and the vibrating Big Ben reading?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Like, I came back and I was like you guys, like still didn't really believe me, wait-not believe me, we still-we-I felt like you guys still were processing this, and so then we did the, we like really took apart like, the bell, and talking about that, and then-kind of the moon and then now we're looking at, talking about like how we can use the big stick in lesson 5 like, to show something vibrating,, we've gone back we've had to go back and do-done the laser on the table like three or four times, like, at least once in each of my classes [Michael chuckles] like reminding </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I guess my like noticing is like lesson 4 was really clunky for me? And, like, kind of like someone said earlier I had them, I whiteboarded, I had them whiteboard like-what was happening with the record and then write it wi-with a partner and then write it on their own and then-then and like finish it at home and then the next day I came through and I had like, a bunch of kids read their conclusions (about) the record, and then I went through and it was like these are the six pieces that I wanna make sure everyone has in their conclusion and I like, we went through each piece and if they had it in their conclusion they underlined it, and put like a 1 next to it, and if they didn't have it they had to add some version of it, and I think it really helped my kids finally like understand, ho-like the level of depth they need in their writing.  Cause when they, when they did the whiteboard they're like I'm done in like 2 seconds and I was like [gestures]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So-so you were able to get em to, to see it with revisiting the demo of the laser and the way it moved like with the t-hitting the table?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YeI also got reflective tape. [timer goes off]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um, we put it on the drum, and then on the table,, it also helped (with)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ye[2-second pause] Yes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So, I'm-i-if we're talking about coherence, when I originally started this I, have two science classes and my teaching partner who teaches language arts and social studies agreed to try to teach the other science while I was teaching one group, and after about two weeks of this we have realized that that is not gonna work, she just doesn't have the time to put into this to do it, to give it the time that it needs so just this week we've gone to, I'm gonna teach my group on Mondays and Tuesdays I'm gonna teach her group on Thursdays and Fridays so it'll be somewhere around 2019 by the time I finish this unit [scattered chuckles] Um, [laughs] but we're gonna get this</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeah.  So, coherence what I'm finding is that the group that I started with, because I had so much a deeper understanding of this, we're doing a f-a really fine job I feel like getting, the concepts and going back and revisiting, but with the other group that started with my partner, they're kinda lost and today was the first day that I had them and I thought oh my heaven, we're kinda gonna have to revisit a lot, so we're gonna do-start lesson 4, on Monday, and I'm really intrigued to see what you guys did to make that work better cause I was reading through and I thought this has, potential to not really, it could be a little clunky maybe, I love the idea the reflective tape cause my first thing was they're</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ye[nodding]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ye[smiling] (mine too)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um, so I love that idea.  So I'm finding I have two groups and two really really different places of understanding right now, and it's probably gonna take me a little while to find out where the second group really is and what they understand cause I haven't really been reading their stuff or seeing what they've been writing,, but this is just how we're gonna have to roll with it.  Um, I feel like, since we end almost every day with a scientist meeting we don't leave, until they've argued out, what they think is going on [timer goes off], a-and that seems to be working.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So we've-we've heard quite a few ideas around, so-DeAnn you were talking about using, sort of the ordering of when you present a phenomenon to help them see that they need to go deeper, right, we heard,, Misty you were say-saying you're pulling straight from the activ-like y-they always get asked like what should we do next and being able to pull from that as a way to, say okay wow</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> this is-you wanted this so this is where we're going, kind of thing,, Gerard and, Jamie just talking about this idea that it's gonna take lots of revisits for ideas, to be able to, not only build that coherence so that they wa-they know where they wanna go next but also to-to sort of construct the ideas, and then we still have this sort of hanging question out there about u-which might help, Wanda's question which is how do I get kids to ask more of the questions or want to ask more things, so, I'm just wondering if anybody has anything that they wanna share with Wanda before we move on to, look at some more of the tools and some more of the ways that we could help-provide, help-students with the coherence, does anybody have any, suggestions or ideas for Wanda about ways to help get-kids asking more questions? [Gerard has pencil up] Goead Gerard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um do you-give them, do you guys do small group question sessions first before you go back whole group?  I found it's very helpful cause I have a-experienced that too where where I notice there's lulls in the questioning coming from the students I-I give them more opportunities to come up with questions in small groups and then when we come back whole-group, there's more, more-more of it is coming from-from the kids themselves, and it-it also is, it helps too when-when I'm walking around and listening to their questions I can then point out and say you know you guys asked a really good question over there why don't you share that, with the class so I think-I just think groupthink kinda helps generate questions, as opposed to me just asking the whole class all right what questions do you have.  [2-second pause]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So Wanda, we got a lot of, we can look it up on the Internet, we can, listen to a podcast, we can-you know we got a lot of that and I-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yewe'll kinda-bring you, all such great ideas, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> goead</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> All right this is awesome thank you guys so much for, such good ideas let's see if we can move on to, step 3, and, we wanna talk a little bit about,, still related to this idea of coherence, that-you know we get psyched when a student raises an idea that's in the direction of where we wanna go and Jamie was just speaking to that directly, right they might bring up a-something earlier in the lesson that you know you're gonna get to, right,, or, maybe you're trying to just do some sense-making around pitch or amplitude and-you know a kid says something you're like yes, we got it, but, we know that there might be kids in the class or that-that understanding might be tentative like Gerard was talking about so we wanna get those ideas to spread, right we want kids to be interacting with what ideas they're putting out there and not just sort of like taking the first answer that comes out, and so-um, helping students work with those ideas for a while can be a little bit challenging, and so I remember this summer, we had this tool this strategic inquiry tool which-um, is linked there on step 3 that has a bunch of, talk moves, and goals that we're trying to support with those talk moves, and so we wanted to take a minute to look at that, and, for ourselves take a look at it and you're gonna be looking at this tool f-with two questions in mind, the first one is to identify some of those moves, or goals that you have been using that you think are helpful in getting the ideas to spread or getting students to work with each other's ideas.  And then also be looking for some that you haven't used as much that you would like to incorporate.  So, we're on step 3 if you could open the strategic inquiry tool and-take about 3 minutes to look through it and see if you can identify some that you're using, and some that you would like to use that you're not as much yet.  Are there any questions about what you're doing?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And it-all right</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oh yeyeyeah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeyeah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeyeso-which o-so of these-there are these sort of five goals of this discussions that we want and then there are some moves that can support those goals,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and we want you to look for all 5 and see if there are some that you feel like yeI readily use those but these I don't </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I-it could be someone else-maybe,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um, well in goal 5 it says where did we leave off, what do we need to figure out next, I mean--but, I (kinda) use that even within the lesson [2-second pause] maybe how can what we figure out today help us with other questions we've identified [4-second pause]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And I-should have spoke up for lesson 4 but I changed that lesson a little bit,, to meet-strategic questions for digging into evidence from an investigation, I reformatted that page they had to write a claim and evidence 1 evidence 2 evidence 3, evidence 1 being what did they observe with the drum, evidence 2 being what the deal (was) with the small rock, and evidence 3 what did they observe with the large rock and then the (beesmake) and that seemed to help</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oh sorry goead Jamie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a lot are, and this is in part due to my issues with engagement earlier, this same who can rephrase that can-who can repeat what so-and-so said there's so much power in being able to rephrase or repeat so I use that one a lot and then I'm also using my kids are now starting to sing the Grease song, tell me more tell me more cause I'm like tell me more! [scattered chuckles]  And, yeah, so they make fun of me for that [nods] so I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Well I bring it back to the green sheet,, and how their right-and obligation to the listener they have the right to an attentive audience and they're obligated, I'm like looking at the green sheet I have over there, I'm obligated to speak loud enough so people can hear, and-we were having a real issue with kids talking at the same time, and so-um, I use it as a way that-that like they c-they shou-they're real-they're really listening, if they can rephrase or repeat what someone else said.  Um, it's also a way of you know making sure everyone's being loud like everyone's speaking with confidence my kids are having-we can only go in the science circle for a very short time right now they're like really into touching teach other inappropriately, [scattered chuckles] so, too close over there, so</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> We do like a science circle at their tables you know, we have some of those conversations,, but yeah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> was there a goal that you-that you would like to incorporate more of?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thank you, going back to what, we said earlier, I've been using the talk move as well that Jamie using, where you ask a student, who can repeat what so-and-so just said, but I'm looking here on the-on the document that you just, reminded me we have it's goal 4, the last bullet point says explaining what someone else means, and the talk moves are who understands why x said that and what might she be thinking or why do you think he/she is telling us that, I think that's, something that I wanna try, moving for-forward cause it really deep-I think it will really deepen their thinking and their way of explaining, what they're thinking and then going back to-s-goal 3,, I like the talk move of is your argument clear enough for others to understand because that would be a-a good talk move I think to use when we want them to go to the, tracking sheets, or just to-for argumentative writing or scientific, writing scientific explanations so, those are just some ones that I just noticed that I'm gonna-try more in the future.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeum, so what's interesting, looking at this again I remember in the summer when we looked at this, I was thinking oh man goal 5 is going to be really difficult like that's what our-I felt like I would struggle with, because I was like oh like goal 1 is something that I feel like I do like just naturally and what's funny is as I'm reading these now,, if I had to say what I use most often I would say that it's a lot of goal 1 4 and 5 because I feel like otherwise like well so how does this help us explain like the record I'm like cause remember like we're trying to be able to explain like how we're able to get sound from the record I feel like I say that all the time, and like the-it-it's always in the room, and so I feel like i-at some points kids are like-someone's always over there or like something would have happened, and then they like need to get closer and they wanna go look at it and I think it's good that it's there like constantly, as like it's this constant reminder,, because at first I was like well maybe that'd get like distracting but it really doesn't like they'll go over there and they'll go to do something so I think about when we finished lesson 5,, we were thinking about like volume, and so I went back to, even before they started writing their, questions about like what they wanted to do next, thinking about pitch a lot of them were, a lot of them came up with like we need to figure out how pitch works and like, maybe we can use that stick to help us again but I wouldn't-before we even-before they did that assignment I remember I went over to the anchoring phenomena and I just like started like spinning it again and someone was like yethat's like super-like they were saying that it was like really,, high or they were s-at first they were saying that it was really loud and I was like is it really loud like can you hear it like from your seat over there and somebody was like it's not loud it's like high pitched or like something like that, and so then</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeabsolutely</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeso I think I would--like just in goal 3 I think these are things that, sometimes I'll ask us-like in a small group if I see something where I'm not quite understanding something but I-I think I wanna ask them more, aloud because like the conversation that usually follows is good conversation, and like more of them should hear it.  I don't tend to do that as a whole class I tend to do more of like 1 4 and 5 because those are experiences that we've all had but I think it might be good to like, do more of like when they have something on their individual paper of their small groups being like bring that up here put (under) the document so everybody can see and like could you tell them what you were talking to me about, so that they could be more, all experiencing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yep.  I'll go next, I'm-I'm pretty good with 1 and parts of others and-that's probably because I teach 3 grade levels, and I'm teaching this to 1 grade level, so I've had to make signs that say the start of those and put em over my back board to refer to because I-often seem to be forget-you know I-I-I'm in 3 different curriculums going so, they're posted so I glance up to remind myself to ask these questions with what (doing) so I'm pretty good with that the way to approach em but I definitely need to work on 3 more of what is their evidence, for why they're saying what they say.  I don't think I go deep enough into, getting their evidence when they're making statements.  Even if their statement is correct, what evidence so that they're saying it out loud and others are hearing it also.  So</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sure, we hold so many meetings that yesterday we were doing a digital citizenship lesson and they decided to hold a citizens' meeting, they-this is such a daily so I feel like they get it we get it but I don't do wrap-up well, that-as a teacher that is my I'm always rushing, rushing rushing rushing, you know I feel like I never give it the time at the end that I need so when I look at section 5 the-how did we figure this out who can talk us through what we did as a group today you know, how do we add to our summary table let's really look at your model can you add something to the model rather than me adding something to the model, that-that would be my real goal those are the ones that I really need to spend more time on.  And work on.  [nods]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YeI'm gonna put those ones on my hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> this way for the small group (they're facing) yeah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You know that-I have sentence starters on my wall for the kids but one of the things I did is in their science notebooks, I made a list of sentence starters but I started them with what you might wanna do like if you want to-agree with someone here's things you can write, if you wanna disagree with someone, here's ways you can start a sentence, if you wanna add on, if you want to, get more information and I-they have found that really helpful to have that, here's what I'm trying to do how do I get this piece of the conversation started, and that's been super helpful for them as far as these conversations go.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And-and I do the same thing you put em in your notebooks I posted those so they would ask in the science group, they-they would ask the question the correct way, or I'd like to add on or could you please repeat-those are posted over my head where I sit in the science group cir-circle so-they notice we practice starting with those when they wanna (do something) and it's kept them from-down kept the-talking over each other down if that makes sense they're taking more turns. [2-second pause]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> All right so thank you guys for that-that's a great discussion, we're gonna-shift in our last 30 minutes to step 4, connecting to this coherence idea and I'm gonna turn it over to Michael.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cool.  So-I wanna like riff a little bit off of, the point that we were just wrapping up with, which was, the-you know this idea that like sometimes if we don't have enough time to-to get to that goal 5, which-a lot of us were saying is one of our goals at the end of a lesson, right we might pick up with it at the start of the next lesson, and having these general purpose strategic inquiry prompts that we can use is helpful but it's also really helpful to know like wait where is the next lesson going, because the context-specific version of the prompt might be bigger bang for the buck right, how you frame it so like you're like, as we were saying before in one lesson oh we just figured out amplitude now what should we do might be the way for kids to say-or, we just figured out volume what should we look at next cause it was like pitch, you know so, I wanna go-take all these general tools and then map em over to where we're going and try to figure out are there specific instances of a type of question you say oh I could totally see asking this question, between these two lessons in bend 2 and it would lay for a really smooth (co-driving) of the lesson-end of one lesson to the start of the next whether it's-actually at the end of the period of the lesson or at the start of the next lesson it would really help strengthen coherence between, between the two lessons and we did this kind of in the summer you may remember us picking out post-its and laying out our post-its and being like here's what the lesson is targeting but here's how we would go from one lesson to the next</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So we're gonna try to do a version of that without being redundant from the storyline document you know the storyline is a little bit more detailed than the board was, but sometimes reading between the lines in the storyline can still help you see oh I can totally see how to connect these 2 together.  I would ask this prompt to the kids or would help-advance our thinking.  So just to get us oriented to the sound storyline for bend 2 we thought we'd look at it together and just kind of talk through, wait we're coming off of lesson 7 at the end of bend 1 into lesson 8 let's just all focus on that one together like what's the question that lesson 8's going to be focused on and how are we gonna foreground or motivate that based on where we end up at the end of 7 and it's quite-it's kind of a discontinuous jump because end of lesson 7 is the end of bend 1, start of lesson 8 is the start of bend 2 so I think this will be challenging for us to think wait how are we going to get from the end of 7 to the start of 8 so could you all open up the document that says sound storyline for bend 2? [echo] [14-second pause]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> My Chromebook's like, (hoppin) around here on this table, I think the emphasis is on the transition to the actual media that the sound's traveling through versus the source so it-it, is that what you're looking for here I mean, [1.5-second pause],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> so cause one of the-I haven't, I-I'm gonna be starting 7 and so I know you know there's the assessment and I know they have that-those (little) sticks like I haven't-I don't know enough about what they're gonna do in 7 to know if at the end of 7 they're gonna be like oh great let's look at this music moving from this-you know I don't know yet what that connection-it's hard for me to connect to 8 right now because I haven't done 7.  Like in my head I have lot of,, expectation for 7 cause they need to be like, wrapping up like how the sources you know like how we know what the source is-and I know that like if you have a good explanation for like how the sound is produced that like how it moves will be like probably what comes next but I just don't-I don't see it yet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oh I think they know we're not done I mean that's only a third of the board right like they-they're like what we still have some other stuff like the-I think they'll be fine like I think they'll see like some con-like we-we need to move on from it like we are done with this and-cause so the funny thing is someone with the tracker when we were finishing it up for 6 was like I mean they were like we've been on part A for a long time like cause like at this point they're now on the back of that first page cause I only gave em one page to start out with cause I was like what happens if they lose this I don't wanna give em like this whole packet of them and so-but I actually like that they'll only need one page for like bend 1 and I think I'm gonna start a new page for bend 2, I think there'll be like a-a row left or something after 7 but I think I'm just gonna give em a new one be like so now we're gonna be looking at like you know how it travels and like sh-here's a new sheet to like record what we've like figured out,, so they-they're ready to go-you know like to see like what's next after that, I just don't know, like what I should see from this right now.  To have em make that connection for them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ger-Gerard you wanna add to that oh-goead</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeum, I-I like the ideas that have been brought up in the past of, organizing the driving question board questions based on what three parts of the initial model f-I think it was lesson 1 or 2 what three parts of the initial model, are these questions dealing with so it's kind of like all right w-we've ac-we've spent a lot of time on the first seven lessons, focusing on how sound is generated from the source we haven't even begun to experience and explore how does it travel, let alone-in the future we're gonna figure out what happens at the receiving end.  So I guess I-what I'm trying to say is revisiting the-the driving questions board and maybe reorganizing the questions what have we-what have we already learned and then what have we not explored yet that we still need to investigate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I.  I (wan) have-I-I don't know why one of my classes finished like way early today and I don't know what I missed but we finished early and so I had them-I had them do I'm taking everybody on a field trip [picking up and moving computer], [scattered chuckles] there's my driving question board, and you can kinda (bad at this) I put the three questions up,, and it was funny cause they like-they started to try and answer the ones from like the sound travel section, and so like they're like I answered it we can-we can make different sounds of different notes and I was like did we really figure that out today or did we figure out what did we figure out and so, that I think is really-I got that from our last meeting like I did it on a sub day I was like everyone pick three questions they think they've answered tell me the evidence and why, then today my kids were like going crazy and I was like what can I do what can I do oh the driving question board go there, but I think they're-I-I think doing the preassessment actually cause my kids know I told them after I think I-I think we have like another week before we're gonna like really assess the sound making and, this girl looked at me she goes Miss Noll, I'm not ready to tell you about what's happening underwater yet.  Are you gonna ask us that question again from the pre-assessment about under [scattered laughs] I could-I cou-I'm not ready yet, and so, I think that but also like when they, like pushed me today in lesson 6 on the bendy stick,, they all now wanna try and make it make sound and like, they were like well wait like does that-wait but the sound has to like go through the air but like when we hit it on something so like is there a way to make the stick hit-hit the parts of the air so I think they're like feeling more confident they understand vibrations now and wanna see like what could they do to the air, like make it, make a sound.  So I feel like Gerard have you done lesson 6 yet?  Or lesson 5?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No.  No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I-I was having some technical issues with the sou-the s-the motion senser-motion detecter.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeah.  Um, it-it-I've had to like recalibrate a bunch of-like I feel like after lesson 5 they really start to put some pieces together.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um, u-going back to something, I think it wa-Wanda you mentioned earlier,, is about time or was it Laura was it you you're worried about the time, issue and, you know making sure that we're-getting to the next lesson and I kinda look at this as like it's now like it's three units within a unit, and I'm thinking of-of like cross-cutting concepts like you know like the water cycle to where NGSS wants us or is-is a shift to going deeper and-and just think of how many different experiences you can, do at each stage of the water cycle like from evaporation and then to condensation to, precipitation, it makes me rethink you know when I, planned to investigate that with students how much deeper you can actually go at each stage, and that's what just kind of reminds me of here where, we're u-I'm not even to bend 2 yet but I'm-my students are and I are having so much fun, digging so deep into it and not worrying so much about the time it takes. [2-second pause]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> one month [indistinct], all right we-let me help I wanna focus us a little bit then so the like-I love that you wanna spend the rest of your careers in the (sound)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Let's-can we-let's can we do maybe one parenthesis-just practicing end bend 2 together, maybe a transition from lesson 8 to 9, or-or-yelet's do 8 to 9 and just be like what could be like a really, low-hanging fruit question to ask a really co-well-framed prompt that would help kids sort of say oh we should totally like, do something like what we're gonna need to do in lesson 9 anyways, help them articulate the question that lesson 9 is trying to get us to, or the question-or the idea for investigation, lesson 9's trying to get us to, and-like Jamie said 8 is like what's up with the medium, right that's gonna where we're at, but 9, well let's-let's take a peek at 9.  And, okay so</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yewe haven't done lesson 4 yet [laughs]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I'm so excited to be part of this though, you guys are all teaching me things evey minute (glad) I'm a part of it, I'm still looking at the-the-the board we made though the color-coded ones, cause I remember, I think Laura we were working on our lesson together</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nuh-(lock up)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YeI got the code, got code thank you!  Thanks guys!  Sorry I should have muted I apologize. [Michael makes a shrugging gesture, 7-second pause]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um I feel like my students haven't pressed or-at least vocalized much about air except for one student when we first set up for lesson 5 and they were, we were graphing the resting position and so, like class is over and like they're leaving and he's like hanging out and I was like what's like do you need something he's like so you know how everybody said it was a straight line right and I was like yes did you not think it was a straight line he's like I mean it was kinda straight do you think it wasn't straight cause like because there are air particles that are like pushing on it also and I was like, I don't know what do you think but it was like one of those things always where I was like wow that was really interesting like I wasn't expecting him to like say that and so I don't know that they necessarily, s-other people might be thinking these things too that they just haven't like vocalized at all and it might be-cause even the way that he came over there I was like he didn't say that in front of other people because it was like oh everybody must have assumed that it's straight like there's nothing else here and so I think, they might be thinking it and so hopefully it'll be something that kinda comes up, as they're-they're seeing it travel from one place to the next and that's like there's nothing else ""there"" other than air so I feel like they would, come to this you know like it must be somehow traveling through the air it's not like there's water or like some other medithat it's traveling through.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Goead Jamie you wanna (say a planting the seed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I've got-two seeds-two seeds we want you to think about planting, going forward, one are these kind of-you know prompts from the strategic inquiry tool that you're like ooh I want to focus on goal 2 wanna focus on goal 5, I wanna plant a few more seeds, and I wanna try and (end) the lesson maybe it's lesson 9 or 10 or 11 we'd like you to pick one of those.  And at the same time I think about what other seeds that are content lesson specific that you might want to plant that help really frame the prompts that will get kids to say maybe we should go here next or we should do this investigation next or this is our next question.  And we'd like you to reflect on it between now and our-our next time if also might-and keep track of what you do, so-pick one and also we-we suggest like this could be a great one for you also to administer to your-to your student survey for cause you can be like ooh I wanna see what they think about that, was that coherent for them and we'll then get you the results once you can analyze it and be like oh that's cool that worked and this one wait now they're saying maybe there's a trade-off in this or this really didn't or this did work and get a little bit of a-a sense from your students what they're thinking in terms of the coherence-from their perspective.  Yeah.  So one lesson, try these prompts-from the strategic inquiry tool, keep a record, try to administer the survey that day too and then we'll get you those results back to you for our next meeting here we'll-we'll work as part of our theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I wanna ask what is-what is the Twitter hit-what do you call it Twitter handle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeyethat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okay.  Just as a question about like our,,, the mailing labels like I haven't gotten mailing labels yet so I haven't sent you guys anything,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mike I sent you a chat message, in regards to the technical issue I'm having so.  Check it out</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YeI'm a-I'm actually free in the morning what time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okay,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Houread of him you're an houread of him</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um, before 7 o'clock yeah, yeI can make it work,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yetotally</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Michael's in Con-Michael's in Connecticut right now leading NGSX part 2 with some Connecticut teachers</t>
-  </si>
-  <si>
-    <t>, I actually have to get my son he normally rides a-a van to school but I have to get him to school tomorrow morning, so, I'll touch base with you via email we can figure something out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okay I just-I know you guys want the, surveys the permission forms and whatever, student activity sheets, is that correct, [2-second pause]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> they're fro-yes we do from cer-certain lessons I think we've put together a list of which ones those were so, is that-we don't need all of them,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YeI mean is there someplace that that's I know that's probably the data collection form somewhere,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YeI have-I've seen that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The only thing I've shared, thus far have been like posterized things so like things that I wrote from them or, like those posters they work on together they don't have any names on them I haven't done any like individual student work,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yecause we-cause we were not supposed to pass out any of those forms to parents or anything right [3-second pause]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cause-cause I have not yeyeokay I was just</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oh yeso it's, i-it's actually so the email that I send out every time there's a, one of these</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yethat's what I was gonna say</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LWT MS Sound yeah, goead</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeit's there</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeso it sa-it's three from lesson 1 two from lesson 4 lesson 7, 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> could take photographs of those you could, so it's not-Laura it's not all of the, student sheets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oh I mean Kelsey's sent them out I'm-I-they should arrive soon, if you don't get them, by Monday can you just shoot me an email please</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I'm sorry tha-to add an extra thing to your plate I know you're busy, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yes I'll email you I think-yeI'll</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeand then I'm meeting with Colleen the following week so I thought maybe I'd come see you then.  If you're up for it</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeum, I just sent you an email asking if you can just send me your number when you get a chance and I'll, get a hold of you tomorrow,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Uh, it's al-it's always fascinating to me-you know to-every-group is different right in terms of, the stuff that they wanna talk about and, we did-you know it didn't, we didn't have as much time, for certain things cause but they wanted to talk about others, I'm starting to not love talking sticks, cause I feel like they can't like talk to each other, u-you know I tried to structure it a little bit more where-so then we could come back to Wanda's question, I th--</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I mean I think that the-the stuff that they're saying is helping with those questions but, y-one might not feel that unless it's sort of like directly addressed so,, I don't know.  I think that, I'm interested to talk to (Tara), and I think (they've) worked on this together the way that they phrased it in MBER this last session where they, the way they did their poll was like these sort of 4 choices like what-which thing should we talk about, and then they talked about those things and the troubleshooting and they didn't do a full share-out with, of noticings,, I'm not saying it's bad-the way we're doing it is bad I'm just wondering I'm just wondering sometimes it feels like it goes better than others</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> more genuine for the group to be like let's dig into the thing we wanna dig into,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Right.  So yeI gotta think like, we're not gonna see em for two weeks so, what will our theme be,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And then,, I don't know you're always very good at saying and this is coming up we should talk about this, like maybe it's the next assessment or maybe, I don't know, is there a question of the five questions that we haven't spent, much time on? [5-second pause]</t>
-  </si>
-  <si>
-    <t>, no</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeor maybe even</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yethey might not be to that point yet or-maybe I-oh could we, put, could we even come up with a few things that students have said, that aren't very deep and sort of throw that like, okay so a student says this, what do you do</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ye(that's) [indistinct]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Right.  Yeso how can we get then kids to dig deeper and what does that look-I don't know so-so (I'll) be thinking about that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ye[indistinct]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [indistinct] All right great, great you'll get one soon like bye</t>
+    <t xml:space="preserve"> [appears]Yep. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [voiceiconappears][sigh,9-secondpause,videoappears]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hello, can you hear me? [6-secondpause]Maybe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [sigh]can't hear you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  By the way you were just staring at the screen I had the screen off I'm like aw she's all by herself,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [laughs]That's very sweet of you thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  there's too many kids out there and husband[chuckles] Yeah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [chuckles]I know.  I had to shut the door.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cause I turned and my husband turns the TV up so loud it's,[Reneechuckles] it's crazy. [6-secondpause]I guess I'm wa-I'm alm-finished almost all-I'm done with Lesson 3 in (redefinish) everybody's way ahead of me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I don't think so, I don't know where, Laura is, she may be, around there too let's see</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [chuckles]Same with picture day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Go ahead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Renee sorry I didn't get on earlier I had a-believe it or not another, meeting,[Reneeputsinearphones,DeAnnchuckles] Hi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [appears][indistinct] (on)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I was like,[makesface] oh she's got headphones. I was like don't tell me tell him</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hi!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  oh look she's ready</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  No, we</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  We did lesson six today, and my kids were like[makesface] Miss Noll, you have to drop the mic like, when we did the-like amplitude, drop the mic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  so I like literally took like SmartBoard pen and like dropped it and they were like yeah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [chuckling]that's awesome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Um, huge! I had to do a little bit more like[gesturing] come on, pulling of them I felt, like there was more, my kids were not like oh I wanna go up and measure it,[alllaugh] some of them did,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oh, can I-can I have a ruler, pleeease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I was like look at i-look at this meter stick could we use this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  right[chuckling] oh yeah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  In a much better place than the last time I saw you Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A ton of testing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The NWA, they do it during science because you know, language arts and math are important.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (Is that [indistinct])</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [chuckles]Yeah, that's-that's a strategy.  Oh there's Misty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  That's what I used to-do I'd be like well I shouldn't sha-I was bad as a teacher,[laughs] Like I didn't-IRB shmIRB now that I'm on the other side I'm gonna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I mean-I mean there's this-there's this tension right cause you want-e-every kid to experience the curriculum you want it to go w-you know, you're doing this no matter what whether we can, study the student work or not so, um, yeah just-as long as it's not interfering with your teaching like you know and you're willing to collect some stuff, and then you feel like you can share with us later, then that's great.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I know I was like 5:29,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yeah she posted-yeah every time I-I we do our little agenda we sort of time things out, I do east coast time and sometimes Michael goes back in and changes it to-to central time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [indistinct]Just to mess with me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  No, it's just it's-all about me,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Right well that too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Maybe uh, j-is everyone on, they can-take a peek at some of people's postings,[4-secondpause] Oh and we're on session 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Session 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [waves]hey Wanda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I'm at a meeting.  My kids[shakinghead] Hello everybody.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [interference][talkingtosomeoneoffscreen,givesthumbsup] how are you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mm-hmm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [nods](so) we-we could talk about that and then there was a question about, student engagement.  Let's start with-let's start with Laura the tracker question Laura you wanna tell-s-say a little bit more about that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  And-and-and they don't know-if-they don't wanna be wrong, I-I don't know what it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yeah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [nodding]yeah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  think I'm gonna go to next, yeah I wanna make just a big poster every day like all right what did we come up with today and what do we wanna walk away with and I'm just gonna stick it on the wall with the nine thousand other things on my wall, and we'll see where we go from there. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Okay um,[clearsthroat] I'm glad you guys brought this up in conversation because um, w-I just had a conversation with my colleagues today and we were like, why can't students remember, things, like why don't things transfer from one day to the next, or from one week to the next, and I just thought of an idea um, what i-cause I think you guys are asking us for how can we you know find more innovative ways to improve this unit and-I'm wondering if it would engage students more if it was more like a comic strip, to where-um there were-it was a little more graphic to go along with just writing text because, I agree that the format itself looks kinda boring, so-another idea too is to maybe have-like pairs of students be responsible for just being the ones that, summarize what we learn each day, and then-start off the next lesson by checking in with all right, what did we add to what we learned yesterday.  You see what I'm saying?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  well there could be a shared docu-it could be a shared document but instead of um, just making it part of the routine where we say all right what did we learn today, you can have like kids take turns in pairs being the ones responsible for that, so that each-you know it's just-I don't know I was just thinking that that's something that could be-um, to spice it up a little bit, like kids can look forward to being the ones to-to um, summarize for the whole class but make it more of a, I don't know some kind of graphic format,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Table 8 you're in charge of coming up with today's, tracker, comic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Like what, what-what we've figured out so far right, like where are we with this thing right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  so other ways,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  and they-it-it almost I said as soon as I pull that thing up it's like the whole thing does go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  So I-we just need another way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  it's like what have we figured out it's like what is this thing and what have we figured out from it, so to me if-if that format is shutting them down then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yeah I mean I guess-it-it's-it's interesting cause like I had my yellow-I had three classes that are yellow that I had today and they're like way, like I go home on yellow days and I'm like[makesupliftinggesture] and then I go home on blue days and I'm like Ahh[clutcheshead] um, and I just-I-I don't think it's an issue of like, high kids versus low kids but-just some kids that are just like, not into school, not into science, they don't quite like, just kinda like, in la la land and like, they're not-they're not diriving whereas like, half my classes I would say the kids like they get it, we're asking the questions, we're like-doing these investigations that we thought of on the first day, it's getting better I think but, um, I just have those couple of kids that are like just, dragging-dragging their feet.  Um.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I like that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Other thoughts?  What poeple have done for-for more challe-les-less engaged students?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  we hadn't done (it) yet, and so I think-one of the things I wanna do tomorrow is I wanna like pull that other poster back out that like-we didn't label in that way um and check off what we've done and then see like hey are there some other things that we still need to and what will they help us figure out so kinda keep-reconnecting them back to like why we had those questions and I noticed um, cause I-something I said to the class that I was talking about like so-oh someone was like, like are we-they were asking like were we done or how-how much longer we have in the unit[scatteredchuckles] and I was like well we still have a lot to figure out you know I was like we have a ton of questions we haven't answered and we haven't like taken any quesitons off yet even though there are some that we can and so what I've noticed now is like on the way out cause-when you come in or out of the classroom you're gonna walk right by like the driving question board and I wa-I'll see kids like periodically like over there like looking at like post it notes trying to be like are we even on this list like whe-where are we and so like I think just like re-engaging them with stuff that they had a part in creating, helps them kind of like stay motivated, so even if they-weren't they're like oh okay so the reason we didn't look at the water yet is cause it's gonna help us with like something else.[shrugs] I don't know I think at least that's been</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  kids identify for themselves like oh, we're a third of the way through our mission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [holdingpeninfrontofcamera]Um.  for those of us in Chicago have you guys ever heard of Andy's music, Andy's music store?  It's a store in Rosco village I'm trying to think of, it's located, on Ellston well actually that's not Rosco village but it's-it's one of the few music stores in Chicago where they have instuments from all over the world and-and I real-it-it's almost like a museum walking through there and the instruments aren't that expensive, but I'm gonna go back and-and now that I think I'm gonna go back and purchase one it-it almost looks like a glass bowl, where you-wave a wand in the middle of it but you're not even touching the bowl and it makes this really, low-pitched humming sound, um, as-as-and it's a musical instrument um I think it's from Peru or somewhere I can't recall exactly but, I mean there's just another tie-in where kids could really be wondering wait a minute, you're not even touching it you're not even applying force and that's making sound, so-I don't know just-other types of musical instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  But I-I do feel like Gerard[echoing] I think we're starting to bring in more of that and I-I bring in a speaker can we all go to the auditorium I'm the sound guy for the play I spent four hours about sound I-I feel like they although there's some that aren't there they-as a whole they're kind of more starting to get, how this works as like, a system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I was like it s-sounds like that's a noticing that Jamie had about some elements of coherence that, d-wanted to share with the group the kids are kind of-and I heard her say like kind of-coming around to be like hey I gotta help-pull the wagon a little bit and I get what that involves[echo] um, maybe just um go around and uh-have each person share sort of a thing that, a noticing related to coherence, um.  And uh if you remember sort of this-this step 2 now talking sticks if you all go to step 2 and remind ourselves that we wanna make sure that we get a noticing from everyone so get a lot of opportunities to riff in different directions, on a second round um where we can then comment or build off of or-kind of think about how those ideas can connect together.  Um. Maybe I-undercut Jamie's-note-maybe Jamie had a different one-noticing but it felt like it was a sort of noticing about coherency.  So-throw it back to you Jamie is there more you wanna say about that or, did you wanna pass it to someone else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Good ca-that's a good point, right yeah we do wanna think at a-at a grain size of like the biggest jumps in coherence are like, we at wrap up let's say you know lesson 2 and we're trying to get to lesson 3 or, 5 to 6 and, and some lessons it may be easier to s-to bring the kids along for the ride and others you might be like ooh that was choppy that like I-I really felt like I was pulling, and I didn't have the kids with me for the rationale and so if you wanna comment on any of those that-you've noticed um, I think it'd be useful for the group to kinda then see that space and think about like how to work with those challenges and opportunities uh for really helping kids connect one lesson to the next whether it's at the end of one lesson or the start of another.  Um[nods] and uh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yeah.  And we can kinda go around just to-to make sure everyone gets a chance I will set the timer just to sort of, you guys always just sort of flow through it but-if you-if someone wants to comment and then when your turn's done you can call on somebody else or you can sort of Gerard does a good job of showing his pen saying you know I got something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Talking stick!  So does anybody wanna start us out?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Um, I-I can start, uh, I never have a talking stick but, um, so I, actually got uh, I have lesson six, papers in from of me that I just got from my students and so like they just finished, um, the student activity sheet and so the last questions on the back are always like next steps like you know what did we do and so like and-for-throughout lesson six in particular um, it's having them go back to the needle um, and the record and starting to think about, how like what they figure out connects to um, how we might be able to hear different pitches and different volumes on the record and then like how could we go about investigating that and so, what I noticed just looking at like the first few when I was like looking at them, is that s-a lot of students are saying, well, so there must be something on the surface that's causing the different pitches like we have those different kind of like lengths and bars and things like that, um, and then the things that they wanna, start investigating they're like, maybe we could zoom in some more to see what the needle does, type of a thing, so they kinda wanna like go back to where we-which was I was like oh good you wanna do what we're gonna do anyway ahh!  Um but it's good to like see that that's kinda where they are.  (Yeah)[7-secondpause] Um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  oh yeah I was like I thought I heard the time or something.  Sure!  Um, (I don't know), Wanda?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Um, my students are not coming up with questions very easily so if you have a strategy to get from there that would be helpful.  That's-they're not-sharing a whole lot one student said well we can go on the Internet and research blah blah blah you know, so.  They're not into,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oh, that's a good question, I can try that[nods] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [indistinct][5-secondpause] Can you call on our next person?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I'll go. [clearsthroat]Want me to go?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  All right, um I was gonna say that I was having, um, trouble with them wanting to, bond to the next lesson with thinking back moving forward, my group is, students who have been together for, quite a few years, they call them the ace studnts, so, they're very um, at-they're not like my other class put it that way but they know a lot[chuckles] , and so they would-felt like they knew everything about sound, and um, I ended up having to, when we started with instruments, to get them to (walk) move forward see how it worked with instruments, um, I had em draw how it worked with the drum, first, before they had to play with cause they-they were so sure they know it all, so they made their model, their model drawing, some show this sequence others just the drum, then, (whose) the drum and we do-uh show the slow motion of all of them, and, that they got (hooked in and) wanna know more they wanted to go back to their model system and [indistinct-interference][chuckles] because they could see they didn't know it all and then they wanted to do more they wanted to move forward more into the other instruments and, it-kind of hooked them into let's go farther, let's find more, what's next, because they were just sure they knew it all.[2-secondpause] [laughs]And they did some great drawings with a lot on it but they didn't know all[chuckles] so, now they're like, wanting to go far forward, I hate to say I had to kinda like-it sounds like I had to tear em down to build them up, but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  We-we call that problematizing,[alarmgoesoff] DeAnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Problematizing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  And they were, okay um, all right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  And we'll come back around.[5-secondpause] Say it again?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [chuckles]you're fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [withglasses]Okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  So-I wanted to bring up uh an issue that came about and forgive me if we talked about this during our last meeting but it was during, lesson 4 with the laser, I'm not 100% sure my students got the most out of what was supposed to be transferred into lesson 5 from that.  For example, some of em were still skeptical that all objects when they vibrate and make sound they-there's actually some elasticity to it, so-did anybody else experience, that same problem to where you're not sure, if you, answered that question or showed that through that demonstration?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [nodding]Yeah I-I kind of addressed it in lesson 5, with the big stick and coming back to the instrument and saying (look,) and what I also did is when they did the, uh, Gerard have your kids done the vibrating moon and the vibrating Big Ben reading?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Like, I came back and I was like you guys, like still didn't really believe me, wait-not believe me, we still-we-I felt like you guys still were processing this, and so then we did the, we like really took apart like, the bell, and talking about that, and then-kind of the moon and then now we're looking at, talking about like how we can use the big stick in lesson 5 like, to show something vibrating, um, we've gone back we've had to go back and do-done the laser on the table like three or four times, like, at least once in each of my classes[Michaelchuckles] like reminding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I guess my like noticing is like lesson 4 was really clunky for me? And, like, kind of like someone said earlier I had them, I whiteboarded, I had them whiteboard like-what was happening with the record and then write it wi-with a partner and then write it on their own and then-then and like finish it at home and then the next day I came through and I had like, a bunch of kids read their conclusions (about) the record, and then I went through and it was like these are the six pieces that I wanna make sure everyone has in their conclusion and I like, we went through each piece and if they had it in their conclusion they underlined it, and put like a 1 next to it, and if they didn't have it they had to add some version of it, and I think it really helped my kids finally like understand, ho-like the level of depth they need in their writing.  Cause when they, when they did the whiteboard they're like I'm done in like 2 seconds and I was like[gestures] um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yeah I also got reflective tape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Um, to show that it really was the table was really moving, and a bunch of them like[demonstrating] put their head like,[scatteredchuckles] and got on the table with their head.  Um.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the table.  So it's like, fine[chuckles] we were like you skeptics we made you into skeptics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yeah[2-secondpause] Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Are-Laura we haven't heard from you yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  So um, I'm-i-if we're talking about coherence um, when I originally started this I, have two science classes and my teaching partner who teaches language arts and social studies agreed to try to teach the other science while I was teaching one group, and after about two weeks of this we have realized that that is not gonna work, she just doesn't have the time to put into this to do it, to give it the time that it needs so just this week we've gone to um, I'm gonna teach my group on Mondays and Tuesdays I'm gonna teach her group on Thursdays and Fridays so it'll be somewhere around 2019 by the time I finish this unit[scatteredchuckles] Um,[laughs] but we're gonna get this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  That's how I do it Laura, that's how I do it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yeah[smiling] (mine too)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Um, so I love that idea.  So I'm finding I have two groups and two really really different places of understanding right now, and it's probably gonna take me a little while to find out where the second group really is and what they understand cause I haven't really been reading their stuff or seeing what they've been writing, um, but this is just how we're gonna have to roll with it.  Um, I feel like, since we end almost every day with a scientist meeting we don't leave, until they've argued out, what they think is going on[timergoesoff] um, a-and that seems to be working.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  this is-you wanted this so this is where we're going, kind of thing, um, Gerard and um, Jamie just talking about this idea that it's gonna take lots of revisits for ideas, to be able to, not only build that coherence so that they wa-they know where they wanna go next but also to-to sort of construct the ideas, um and then we still have this sort of hanging question out there about u-which might help, Wanda's question which is how do I get kids to ask more of the questions or want to ask more things, so, I'm just wondering if anybody has anything that they wanna share with Wanda before we move on to, look at some more of the tools and some more of the ways that we could help-provide, help-students with the coherence, does anybody have any, suggestions or ideas for Wanda about ways to help get-kids asking more questions?[Gerardhaspencilup] Go ahead Gerard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Um, Wanda?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Um do you-give them, do you guys um do small group uh question sessions first before you go back whole group?  I found it's very helpful cause I have a-experienced that too where uh where I notice there's lulls in um the questioning coming from the students I-I give them more opportunities to come up with questions in small groups and then when we come back whole-group um, there's more um, more-more of it is coming from-from the kids themselves, and it-it also is um, it helps too when-when I'm walking around and listening to their questions I can then point out and say you know you guys asked a really good question over there why don't you share that, with the class so I think-I just think uh groupthink kinda helps um generate questions um, as opposed to me just asking the whole class all right what questions do you have. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Like-I'm like[indistinct] like (I know)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Um, and then bring in that,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You've covered all the buzzwords in that one, statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  It sounded good, I should-did we record that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [laughing]is this thing on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (and) I realized it was my issue in that I probably when I rephrased the question to, what do you wanna do, what can we examine closer, let's leave the Inter-I actually had to say let's leave the Internet out of it[scatteredchuckles] because i-although they were really good and some of the things like when we were looking at the-the needle and the record player even though I knew that was coming that we were gonna get a piece of the, video clip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  my friend at Northwestern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Or like I'm just[indistinct] cause like I'm right here so they're like, yesterday they were like we gotta look at how this moves and I was like well I'm just gonna call my friends at Northwestern and see what they have that could like, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [chuckling]that's good, I love it</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [indistinct]and starting a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [indistinct]and go on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  And I s-I too have rich friends they were like where did you get this how much did it cost I was like I don't know it came from Northwestern they were like oh,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  in service in getting ideas to spread in service of getting kids to work with each other's ideas, which is all in service of,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [gesturesagain]sense-making and coherence, right.[4-secondpause] I'll set the timer and we'll see where we're h-see how we-see where we are, when the timer goes off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Right now you're just identifying and thinking and then you're gonna share out so you might wanna jot-you know you can, make a little note to yourself about what-what you wanna say or, what-which one do you wanna share.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I have a paper copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Okay.  I see okay.[6-secondpause] Cause these are things that I think, we all do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Like about thirty more seconds and then we would love to hear, from you guys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You don't have to be writing.  You can if you want but you can just-[gestures]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I hear typing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (it was feeling different from [indistinct])</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [indistinct][timergoesoff] (you're like we're feeling like) slackers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [laughing](we were like what was I typing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Uh-can you say a little bit more about like, what about 5 sort of stood out for you that you feel like, isn't,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Um, well in goal 5 it says where did we leave off, what do we need to figure out next, I mean--but, I (kinda) use that even within the lesson[2-secondpause] maybe uh how can what we figure out today help us with other questions we've identified</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [indistinct](I think I've used that one before)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nice.[2-secondpause] who else would like to-share what goals, what moves they seem to be using and what they're-they would like to focus a little bit more on,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gerard?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  a lot are um, and this is in part due to my issues with engagement earlier, this same who can rephrase that can-who can repeat what so-and-so said there's so much power in being able to rephrase or repeat so I use that one a lot and then I'm also using my kids are now starting to sing the Grease song, tell me more tell me more cause I'm like tell me more![scatteredchuckles] And um, yeah, so they make fun of me for that[nods] so I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Well I bring it back to the green sheet, um, and how their right-and obligation to the listener they have the right to an attentive audience and they're obligated um, I'm like looking at the green sheet I have over there, I'm obligated to speak loud enough so people can hear, and-we were having a real issue with kids talking at the same time, and so-um, I use it as a way that-that like they c-they shou-they're real-they're really listening, if they can rephrase or repeat what someone else said.  Um, it's also a way of you know making sure everyone's being loud like everyone's speaking with confidence my kids are having-we can only go in the science circle for a very short time right now they're like really into touching teach other inappropriately,[scatteredchuckles] so, too close over there, so</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [indistinct]middle school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I don't know if I'm doing as much asking them the like, but why are we doing this like how does this like, kinda like pulling it back to the how and the why of the, the big picture but also like the biiig picture, of-you know life and the world and-also just like bringing it back, to the driving question board like how does this connect, you know we didn't rea-like to back to the-to the record and the needle and how does that connect to like your actual life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Very cool. [1.5-secondpause]Misty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Can I ask[indistinct] questions so are you saying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nice.[2-secondpause] Who have we not heard from?  DeAnn and Laura?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  That makes sense, that makes sense. [3-secondpause]Laura do you wanna-finish us out?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sure um, we hold so many meetings that yesterday we were doing a digital citizenship lesson and they decided to hold a citizens' meeting um, they-this is such a daily so I feel like they get it we get it but I don't do wrap-up well, that-as a teacher that is my I'm always rushing, rushing rushing rushing, you know I feel like I never give it the time at the end that I need so when I look at section 5 the-how did we figure this out who can talk us through what we did as a group today you know, how do we add to our summary table let's really look at your model can you add something to the model rather than me adding something to the model, that-that would be my real goal those are the ones that I really need to spend more time on.  And work on. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  And you can print em up like I did and post them on the wall the direct where I look,[chuckles] they're-they're (on there)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  And they-the kids-the kids will use them too if you put them up so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (I was post)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  And-and I do the same thing you put em in your notebooks I posted those so they would ask in the science group um, they-they would ask the question the correct way, or I'd like to add on or could you please repeat-those are posted over my head where I sit in the science group cir-circle so-they notice we practice starting with those when they wanna (do something) and it's kept them from-down kept the-uh talking over each other down if that makes sense they're taking more turns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I want us thinking about that in terms of like what's a prompt, even just like one that we might ask that would really help that on-ramp from one lesson to the other.  So that's our goal up in-in step 4 if we could all go to that and take a, peek at what's on step 4 that's our looking forward,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I'm pulling up a picture of that color-coded board we hate we made[smiles] that I took on my phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  So we're gonna try to do a version of that without being redundant uh from the storyline document you know the storyline is a little bit more detailed than the board was, uh but sometimes reading between the lines in the storyline can still help you see oh I can totally see how to connect these 2 together.  I would ask this prompt to the kids or would help-advance our thinking.  So just to get us oriented to the sound storyline for bend 2 we thought we'd look at it together and just kind of talk through, wait we're coming off of lesson 7 at the end of bend 1 into lesson 8 let's just all focus on that one together like what's the question that lesson 8's going to be focused on and how are we gonna foreground or motivate that based on where we end up at the end of 7 and it's quite-it's kind of a discontinuous jump because end of lesson 7 is the end of bend 1, start of lesson 8 is the start of bend 2 so I think this will be challenging for us to think wait how are we going to get from the end of 7 to the start of 8 so could you all open up the document that says sound storyline for bend 2?[echo] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I'm having technical difficulties.[Michaelnods] Trying to reconnect.[echoes] [2.5-secondpause]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Okay.  As we're-jumping in there those who are connected scroll down to the top of page 2[echoes] , [10-secondpause]and our goal is what is lesson 8[echo] I'm getting a little bit of feedback here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Maybe if people could mute themselves just so that if you're not talking just so we could avoid that (might be good)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Let's spend a minute looking at that thinking about like what's lesson 8 really trying to focus on what's this question and how are we foregrounding that question as we move from lesson 7 to 8 what's the-what's the bridge in coherence from the students' perspective.[53-secondpause] And then when someone's ready maybe they can raise a hand and start us off. [2-secondpause]Or their pen.[44-secondpause] Any takers?  On-what's our question for-that we're trying to foreground for lesson 8?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How does-the sound travel from the truck--[lightsgooninJamie'sroom] hey Erin! Oh-to the window?  To make the window move?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cool.  Do others wanna add into that?[Gerardbeginstalkingandbutismuted] (Gerard) your microphone's muted you unmute[6-secondpause,Gerardunmutesandremutes,6moresecondsofsilence] You remuted it Gerard you pressed it and it unmuted and then I saw it went muted again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  My Chromebook's like, (hoppin) around here on this table um, I think the emphasis is on the transition to the actual media that the sound's traveling through versus the source so it-it, is that what you're looking for here I mean,[1.5-secondpause] um,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  So what do others think doe-do we feel like lesson-end of lesson 7 sort of is really focused on the source and now we're shifting to the medium?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I um.  I (wan) have-I-I don't know why one of my classes finished like way early today and I don't know what I missed but we finished early and so I had them-I had them do I'm taking everybody on a field trip[pickingupandmovingcomputer] uh,[scatteredchuckles] there's my driving question board uh, and you can kinda uh (bad at this) I put the three questions up, um, and it was funny cause they like-they started to try and answer the ones from like the sound travel section, and so like they're like I answered it we can-we can make different sounds of different notes and I was like did we really figure that out today or did we figure out what did we figure out and so, that I think is really-I got that from our last meeting like I did it on a sub day I was like everyone pick three questions they think they've answered tell me the evidence and why, then today my kids were like going crazy and I was like what can I do what can I do oh the driving question board go there um, but I think they're-I-I think doing the preassessment actually cause my kids know I told them after I think I-I think we have like another week before we're gonna like really assess the sound making and, this girl looked at me she goes Miss Noll, I'm not ready to tell you about what's happening underwater yet.  Are you gonna ask us that question again from the pre-assessment about under[scatteredlaughs] I could-I cou-I'm not ready yet, and so, I think that but also like when they, like pushed me today in lesson 6 on the bendy stick, um, they all now wanna try and make it make sound and like, they were like well wait like does that-wait but the sound has to like go through the air but like when we hit it on something so like is there a way to make the stick hit-hit the parts of the air so I think they're like feeling more confident they understand vibrations now and wanna see like what could they do to the air, like make it, make a sound.  So I feel like Gerard have you done lesson 6 yet?  Or lesson 5?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Um, u-going back to uh something um, I think it wa-Wanda you mentioned earlier, um, is about time or was it Laura was it you you're worried about the time, issue and um, you know making sure that we're-getting to the next lesson and I kinda look at this as like it's now like it's three units within a unit um, and I'm thinking of-of like cross-cutting concepts like you know like the water cycle to where NGSS wants us or is-is a shift to going deeper and-and just think of how many different experiences you can uh, do at each stage of the water cycle like from evaporation and then to condensation to, precipitation um, it makes me rethink you know when I um, planned to investigate that with students uh how much deeper you can actually go at each stage, and that's what just kind of reminds me of here where uh, we're u-I'm not even to bend 2 yet but I'm-my students are and I are having so much fun um, digging so deep into it and not worrying so much about the time it takes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I'll just still be teaching it in January.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2019.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (As the)-study session goes on new months are added,[alllaugh] like every half hour a study session equals one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yep!  Yep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  one month[indistinct] um, all right we-let me help I wanna focus us a little bit then so the like-I love that you wanna spend the rest of your careers in the (sound)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I'm in the dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yeah we haven't done lesson 4 yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  So-[indistinct]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  can we take the air away, like in space,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Psst[gesturing] [whisperssomething](I'm in a study group)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [whisperssomething][MichaelandGerard'sprincipalwave]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aw thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  These guys (are the best)[indistinctwhisperingbetweenGerardandprincipal] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [indistinct](I'm out)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yeah I got the code, got code thank you!  Thanks guys!  Sorry I should have muted I apologize.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Maybe give about thirty more seconds and then see if anyone can give us a, a transition for my class imagining we have not even thought about the idea of messing with the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Well, it-uh-it says lesson 8 how does the sound get from the source to the window, and then where the phenomenon that's being investigated is the loud music the car shaking you know the window's also shaking but then it says sound from one place can affect something else and just getting them to think how is this possible makes em wonder ask-forces them to wonder about what's going on in between.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What do others think?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Like when I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Or like it's like what I said earlier about like planting that seed like just you can mention it and like have like something that you guys did (ins) too and like write that down on the side of your paper, or add it to the driving question board. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gerard[laughing] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I just wanna give Wanda props on her twitter feed I'm loving watching what she's putting out there every day I'm like oh that's a really good idea so Wanda way to go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  we do--ahead of m--can you do before, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Uh, let me punch it in right now just to make sure[2.5-secondpause] Okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Okay I just-I know you guys want the, surveys the permission forms and whatever, um student activity sheets, is that correct,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  But I was gonna ask about that process if things were going or,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yeah cause we-cause we were not supposed to pass out any of those forms to parents or anything right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (nah)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  hopefully by Monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  All right you too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (sounds good) cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  And then, um, I don't know you're always very good at saying and this is coming up we should talk about this, like maybe it's the next assessment or maybe, I don't know, is there a question of the five questions that we haven't spent, much time on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Well question 4, a little bit, how do we push students to go deeper, and revise the science ideas we've build together so far.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [nodding]which some of-well no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Yeah (that's)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Okay, cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Feel like they're really[makesgesture] getting tighter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I wa-I-I just think that it is a nice support for each other and I think in general I feel like the time is well-spent for them in this hour and a half but I just wanna make sure that it is you know what I mean like, I-I always worry in the beginning part like,[makesgesture] especially the talking stick part like is this-is this helpful sometimes it-I feel like it really is productive and then other times I'm like eh, we gotta-would you agree Trey?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [nods]that's my sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  so there is some aspect of like hey we're gonna put a little time on this while we're sharing out, that is maybe needed, so that we don't have to interrupt people but, anyway so we have to-, weigh that.[2-secondpause] All right think about it over dinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I wa-sorry real quick, did you guys decide on your meeting for the debrief for next week or do I need to send out another poll, like did you guys decide at the last meeting at the end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You have to send out another poll</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [indistinct]All right great, great uh you'll get one soon like bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Okay[allchuckling] Thank you, bye</t>
   </si>
 </sst>
 </file>
@@ -5909,7 +6053,7 @@
         <v>913</v>
       </c>
       <c r="D1" t="s">
-        <v>913</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5923,7 +6067,7 @@
         <v>914</v>
       </c>
       <c r="D2" t="s">
-        <v>914</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5937,7 +6081,7 @@
         <v>915</v>
       </c>
       <c r="D3" t="s">
-        <v>915</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5951,7 +6095,7 @@
         <v>916</v>
       </c>
       <c r="D4" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5965,7 +6109,7 @@
         <v>917</v>
       </c>
       <c r="D5" t="s">
-        <v>917</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5979,7 +6123,7 @@
         <v>918</v>
       </c>
       <c r="D6" t="s">
-        <v>918</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5993,7 +6137,7 @@
         <v>919</v>
       </c>
       <c r="D7" t="s">
-        <v>919</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6007,7 +6151,7 @@
         <v>920</v>
       </c>
       <c r="D8" t="s">
-        <v>920</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6021,7 +6165,7 @@
         <v>921</v>
       </c>
       <c r="D9" t="s">
-        <v>921</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6035,7 +6179,7 @@
         <v>922</v>
       </c>
       <c r="D10" t="s">
-        <v>922</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6049,7 +6193,7 @@
         <v>923</v>
       </c>
       <c r="D11" t="s">
-        <v>923</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6063,7 +6207,7 @@
         <v>924</v>
       </c>
       <c r="D12" t="s">
-        <v>924</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6077,7 +6221,7 @@
         <v>925</v>
       </c>
       <c r="D13" t="s">
-        <v>925</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6091,7 +6235,7 @@
         <v>926</v>
       </c>
       <c r="D14" t="s">
-        <v>926</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6105,7 +6249,7 @@
         <v>927</v>
       </c>
       <c r="D15" t="s">
-        <v>927</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6119,7 +6263,7 @@
         <v>928</v>
       </c>
       <c r="D16" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6133,7 +6277,7 @@
         <v>929</v>
       </c>
       <c r="D17" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6147,7 +6291,7 @@
         <v>930</v>
       </c>
       <c r="D18" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6161,7 +6305,7 @@
         <v>931</v>
       </c>
       <c r="D19" t="s">
-        <v>931</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6175,7 +6319,7 @@
         <v>932</v>
       </c>
       <c r="D20" t="s">
-        <v>932</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6189,7 +6333,7 @@
         <v>933</v>
       </c>
       <c r="D21" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6203,7 +6347,7 @@
         <v>934</v>
       </c>
       <c r="D22" t="s">
-        <v>934</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6217,7 +6361,7 @@
         <v>935</v>
       </c>
       <c r="D23" t="s">
-        <v>935</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6231,7 +6375,7 @@
         <v>936</v>
       </c>
       <c r="D24" t="s">
-        <v>936</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6245,7 +6389,7 @@
         <v>937</v>
       </c>
       <c r="D25" t="s">
-        <v>937</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6259,7 +6403,7 @@
         <v>938</v>
       </c>
       <c r="D26" t="s">
-        <v>938</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6273,7 +6417,7 @@
         <v>939</v>
       </c>
       <c r="D27" t="s">
-        <v>939</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6287,7 +6431,7 @@
         <v>940</v>
       </c>
       <c r="D28" t="s">
-        <v>940</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6301,7 +6445,7 @@
         <v>941</v>
       </c>
       <c r="D29" t="s">
-        <v>941</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6315,7 +6459,7 @@
         <v>942</v>
       </c>
       <c r="D30" t="s">
-        <v>942</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6329,7 +6473,7 @@
         <v>943</v>
       </c>
       <c r="D31" t="s">
-        <v>943</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6343,7 +6487,7 @@
         <v>944</v>
       </c>
       <c r="D32" t="s">
-        <v>1693</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6357,7 +6501,7 @@
         <v>945</v>
       </c>
       <c r="D33" t="s">
-        <v>945</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6371,7 +6515,7 @@
         <v>946</v>
       </c>
       <c r="D34" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6385,7 +6529,7 @@
         <v>928</v>
       </c>
       <c r="D35" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6399,7 +6543,7 @@
         <v>947</v>
       </c>
       <c r="D36" t="s">
-        <v>947</v>
+        <v>912</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6413,7 +6557,7 @@
         <v>948</v>
       </c>
       <c r="D37" t="s">
-        <v>948</v>
+        <v>912</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6427,7 +6571,7 @@
         <v>949</v>
       </c>
       <c r="D38" t="s">
-        <v>949</v>
+        <v>912</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6441,7 +6585,7 @@
         <v>950</v>
       </c>
       <c r="D39" t="s">
-        <v>950</v>
+        <v>912</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6455,7 +6599,7 @@
         <v>951</v>
       </c>
       <c r="D40" t="s">
-        <v>951</v>
+        <v>912</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6469,7 +6613,7 @@
         <v>952</v>
       </c>
       <c r="D41" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6483,7 +6627,7 @@
         <v>953</v>
       </c>
       <c r="D42" t="s">
-        <v>953</v>
+        <v>912</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6497,7 +6641,7 @@
         <v>954</v>
       </c>
       <c r="D43" t="s">
-        <v>954</v>
+        <v>912</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6511,7 +6655,7 @@
         <v>955</v>
       </c>
       <c r="D44" t="s">
-        <v>955</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6525,7 +6669,7 @@
         <v>956</v>
       </c>
       <c r="D45" t="s">
-        <v>956</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6539,7 +6683,7 @@
         <v>957</v>
       </c>
       <c r="D46" t="s">
-        <v>957</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6553,7 +6697,7 @@
         <v>958</v>
       </c>
       <c r="D47" t="s">
-        <v>958</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6567,7 +6711,7 @@
         <v>959</v>
       </c>
       <c r="D48" t="s">
-        <v>1696</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6581,7 +6725,7 @@
         <v>960</v>
       </c>
       <c r="D49" t="s">
-        <v>960</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6595,7 +6739,7 @@
         <v>961</v>
       </c>
       <c r="D50" t="s">
-        <v>961</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6609,7 +6753,7 @@
         <v>962</v>
       </c>
       <c r="D51" t="s">
-        <v>962</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6623,7 +6767,7 @@
         <v>963</v>
       </c>
       <c r="D52" t="s">
-        <v>963</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6637,7 +6781,7 @@
         <v>964</v>
       </c>
       <c r="D53" t="s">
-        <v>964</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6651,7 +6795,7 @@
         <v>965</v>
       </c>
       <c r="D54" t="s">
-        <v>965</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6665,7 +6809,7 @@
         <v>966</v>
       </c>
       <c r="D55" t="s">
-        <v>966</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6679,7 +6823,7 @@
         <v>967</v>
       </c>
       <c r="D56" t="s">
-        <v>967</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6693,7 +6837,7 @@
         <v>968</v>
       </c>
       <c r="D57" t="s">
-        <v>968</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6707,7 +6851,7 @@
         <v>969</v>
       </c>
       <c r="D58" t="s">
-        <v>969</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6721,7 +6865,7 @@
         <v>970</v>
       </c>
       <c r="D59" t="s">
-        <v>970</v>
+        <v>912</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6735,7 +6879,7 @@
         <v>971</v>
       </c>
       <c r="D60" t="s">
-        <v>1697</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6749,7 +6893,7 @@
         <v>972</v>
       </c>
       <c r="D61" t="s">
-        <v>972</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6763,7 +6907,7 @@
         <v>973</v>
       </c>
       <c r="D62" t="s">
-        <v>973</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6777,7 +6921,7 @@
         <v>974</v>
       </c>
       <c r="D63" t="s">
-        <v>1698</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6791,7 +6935,7 @@
         <v>975</v>
       </c>
       <c r="D64" t="s">
-        <v>975</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6805,7 +6949,7 @@
         <v>976</v>
       </c>
       <c r="D65" t="s">
-        <v>1699</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6819,7 +6963,7 @@
         <v>977</v>
       </c>
       <c r="D66" t="s">
-        <v>977</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6833,7 +6977,7 @@
         <v>978</v>
       </c>
       <c r="D67" t="s">
-        <v>978</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6847,7 +6991,7 @@
         <v>979</v>
       </c>
       <c r="D68" t="s">
-        <v>979</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6861,7 +7005,7 @@
         <v>980</v>
       </c>
       <c r="D69" t="s">
-        <v>980</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6875,7 +7019,7 @@
         <v>981</v>
       </c>
       <c r="D70" t="s">
-        <v>981</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6889,7 +7033,7 @@
         <v>982</v>
       </c>
       <c r="D71" t="s">
-        <v>982</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6903,7 +7047,7 @@
         <v>983</v>
       </c>
       <c r="D72" t="s">
-        <v>983</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6917,7 +7061,7 @@
         <v>984</v>
       </c>
       <c r="D73" t="s">
-        <v>984</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -6931,7 +7075,7 @@
         <v>936</v>
       </c>
       <c r="D74" t="s">
-        <v>936</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -6945,7 +7089,7 @@
         <v>985</v>
       </c>
       <c r="D75" t="s">
-        <v>985</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -6959,7 +7103,7 @@
         <v>986</v>
       </c>
       <c r="D76" t="s">
-        <v>986</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -6973,7 +7117,7 @@
         <v>987</v>
       </c>
       <c r="D77" t="s">
-        <v>987</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -6987,7 +7131,7 @@
         <v>988</v>
       </c>
       <c r="D78" t="s">
-        <v>988</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7001,7 +7145,7 @@
         <v>989</v>
       </c>
       <c r="D79" t="s">
-        <v>989</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7015,7 +7159,7 @@
         <v>990</v>
       </c>
       <c r="D80" t="s">
-        <v>990</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -7029,7 +7173,7 @@
         <v>991</v>
       </c>
       <c r="D81" t="s">
-        <v>1700</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -7043,7 +7187,7 @@
         <v>992</v>
       </c>
       <c r="D82" t="s">
-        <v>992</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -7057,7 +7201,7 @@
         <v>993</v>
       </c>
       <c r="D83" t="s">
-        <v>993</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -7071,7 +7215,7 @@
         <v>994</v>
       </c>
       <c r="D84" t="s">
-        <v>994</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -7085,7 +7229,7 @@
         <v>995</v>
       </c>
       <c r="D85" t="s">
-        <v>995</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -7099,7 +7243,7 @@
         <v>996</v>
       </c>
       <c r="D86" t="s">
-        <v>996</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7113,7 +7257,7 @@
         <v>997</v>
       </c>
       <c r="D87" t="s">
-        <v>997</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7127,7 +7271,7 @@
         <v>928</v>
       </c>
       <c r="D88" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7141,7 +7285,7 @@
         <v>998</v>
       </c>
       <c r="D89" t="s">
-        <v>998</v>
+        <v>912</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7155,7 +7299,7 @@
         <v>999</v>
       </c>
       <c r="D90" t="s">
-        <v>999</v>
+        <v>912</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -7169,7 +7313,7 @@
         <v>1000</v>
       </c>
       <c r="D91" t="s">
-        <v>1000</v>
+        <v>912</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7183,7 +7327,7 @@
         <v>1001</v>
       </c>
       <c r="D92" t="s">
-        <v>1001</v>
+        <v>912</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7197,7 +7341,7 @@
         <v>1002</v>
       </c>
       <c r="D93" t="s">
-        <v>1002</v>
+        <v>912</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -7211,7 +7355,7 @@
         <v>1003</v>
       </c>
       <c r="D94" t="s">
-        <v>1003</v>
+        <v>912</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -7225,7 +7369,7 @@
         <v>949</v>
       </c>
       <c r="D95" t="s">
-        <v>949</v>
+        <v>912</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -7239,7 +7383,7 @@
         <v>928</v>
       </c>
       <c r="D96" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -7253,7 +7397,7 @@
         <v>1004</v>
       </c>
       <c r="D97" t="s">
-        <v>1701</v>
+        <v>912</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7267,7 +7411,7 @@
         <v>1005</v>
       </c>
       <c r="D98" t="s">
-        <v>1005</v>
+        <v>912</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7281,7 +7425,7 @@
         <v>1006</v>
       </c>
       <c r="D99" t="s">
-        <v>1006</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7295,7 +7439,7 @@
         <v>928</v>
       </c>
       <c r="D100" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7309,7 +7453,7 @@
         <v>1007</v>
       </c>
       <c r="D101" t="s">
-        <v>1007</v>
+        <v>912</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7323,7 +7467,7 @@
         <v>1008</v>
       </c>
       <c r="D102" t="s">
-        <v>1702</v>
+        <v>912</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7337,7 +7481,7 @@
         <v>1009</v>
       </c>
       <c r="D103" t="s">
-        <v>1009</v>
+        <v>912</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -7351,7 +7495,7 @@
         <v>1010</v>
       </c>
       <c r="D104" t="s">
-        <v>1010</v>
+        <v>912</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7365,7 +7509,7 @@
         <v>928</v>
       </c>
       <c r="D105" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -7379,7 +7523,7 @@
         <v>1011</v>
       </c>
       <c r="D106" t="s">
-        <v>1011</v>
+        <v>912</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -7393,7 +7537,7 @@
         <v>997</v>
       </c>
       <c r="D107" t="s">
-        <v>997</v>
+        <v>912</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -7407,7 +7551,7 @@
         <v>1012</v>
       </c>
       <c r="D108" t="s">
-        <v>1012</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -7421,7 +7565,7 @@
         <v>949</v>
       </c>
       <c r="D109" t="s">
-        <v>949</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7435,7 +7579,7 @@
         <v>1013</v>
       </c>
       <c r="D110" t="s">
-        <v>1013</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -7449,7 +7593,7 @@
         <v>1014</v>
       </c>
       <c r="D111" t="s">
-        <v>1014</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -7463,7 +7607,7 @@
         <v>1015</v>
       </c>
       <c r="D112" t="s">
-        <v>1015</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -7477,7 +7621,7 @@
         <v>1016</v>
       </c>
       <c r="D113" t="s">
-        <v>1016</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -7491,7 +7635,7 @@
         <v>1017</v>
       </c>
       <c r="D114" t="s">
-        <v>1017</v>
+        <v>912</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -7505,7 +7649,7 @@
         <v>1018</v>
       </c>
       <c r="D115" t="s">
-        <v>1018</v>
+        <v>912</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -7519,7 +7663,7 @@
         <v>1019</v>
       </c>
       <c r="D116" t="s">
-        <v>1019</v>
+        <v>912</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -7533,7 +7677,7 @@
         <v>1020</v>
       </c>
       <c r="D117" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -7547,7 +7691,7 @@
         <v>1021</v>
       </c>
       <c r="D118" t="s">
-        <v>1021</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -7561,7 +7705,7 @@
         <v>986</v>
       </c>
       <c r="D119" t="s">
-        <v>986</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -7575,7 +7719,7 @@
         <v>1022</v>
       </c>
       <c r="D120" t="s">
-        <v>1703</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -7589,7 +7733,7 @@
         <v>1023</v>
       </c>
       <c r="D121" t="s">
-        <v>1023</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -7603,7 +7747,7 @@
         <v>1024</v>
       </c>
       <c r="D122" t="s">
-        <v>1024</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -7617,7 +7761,7 @@
         <v>1025</v>
       </c>
       <c r="D123" t="s">
-        <v>1025</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -7631,7 +7775,7 @@
         <v>1026</v>
       </c>
       <c r="D124" t="s">
-        <v>1026</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -7645,7 +7789,7 @@
         <v>1027</v>
       </c>
       <c r="D125" t="s">
-        <v>1027</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -7659,7 +7803,7 @@
         <v>1028</v>
       </c>
       <c r="D126" t="s">
-        <v>1028</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -7673,7 +7817,7 @@
         <v>1029</v>
       </c>
       <c r="D127" t="s">
-        <v>1029</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -7687,7 +7831,7 @@
         <v>1030</v>
       </c>
       <c r="D128" t="s">
-        <v>1030</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -7701,7 +7845,7 @@
         <v>1031</v>
       </c>
       <c r="D129" t="s">
-        <v>1031</v>
+        <v>912</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -7715,7 +7859,7 @@
         <v>1032</v>
       </c>
       <c r="D130" t="s">
-        <v>1032</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -7729,7 +7873,7 @@
         <v>1033</v>
       </c>
       <c r="D131" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -7743,7 +7887,7 @@
         <v>1034</v>
       </c>
       <c r="D132" t="s">
-        <v>1034</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -7757,7 +7901,7 @@
         <v>1035</v>
       </c>
       <c r="D133" t="s">
-        <v>1035</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -7771,7 +7915,7 @@
         <v>1036</v>
       </c>
       <c r="D134" t="s">
-        <v>1036</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -7785,7 +7929,7 @@
         <v>1037</v>
       </c>
       <c r="D135" t="s">
-        <v>1037</v>
+        <v>912</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -7799,7 +7943,7 @@
         <v>1038</v>
       </c>
       <c r="D136" t="s">
-        <v>1038</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -7813,7 +7957,7 @@
         <v>1039</v>
       </c>
       <c r="D137" t="s">
-        <v>1705</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -7827,7 +7971,7 @@
         <v>1040</v>
       </c>
       <c r="D138" t="s">
-        <v>1040</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -7841,7 +7985,7 @@
         <v>1041</v>
       </c>
       <c r="D139" t="s">
-        <v>1041</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -7855,7 +7999,7 @@
         <v>1042</v>
       </c>
       <c r="D140" t="s">
-        <v>1042</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -7869,7 +8013,7 @@
         <v>1043</v>
       </c>
       <c r="D141" t="s">
-        <v>1706</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -7883,7 +8027,7 @@
         <v>1044</v>
       </c>
       <c r="D142" t="s">
-        <v>1044</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -7897,7 +8041,7 @@
         <v>1045</v>
       </c>
       <c r="D143" t="s">
-        <v>1045</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -7911,7 +8055,7 @@
         <v>970</v>
       </c>
       <c r="D144" t="s">
-        <v>970</v>
+        <v>912</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -7925,7 +8069,7 @@
         <v>1046</v>
       </c>
       <c r="D145" t="s">
-        <v>1046</v>
+        <v>912</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -7939,7 +8083,7 @@
         <v>1047</v>
       </c>
       <c r="D146" t="s">
-        <v>1047</v>
+        <v>912</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -7953,7 +8097,7 @@
         <v>1042</v>
       </c>
       <c r="D147" t="s">
-        <v>1042</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -7967,7 +8111,7 @@
         <v>1048</v>
       </c>
       <c r="D148" t="s">
-        <v>1048</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -7981,7 +8125,7 @@
         <v>1049</v>
       </c>
       <c r="D149" t="s">
-        <v>1049</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -7995,7 +8139,7 @@
         <v>1050</v>
       </c>
       <c r="D150" t="s">
-        <v>1707</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8009,7 +8153,7 @@
         <v>1051</v>
       </c>
       <c r="D151" t="s">
-        <v>1051</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8023,7 +8167,7 @@
         <v>1052</v>
       </c>
       <c r="D152" t="s">
-        <v>1052</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8037,7 +8181,7 @@
         <v>1053</v>
       </c>
       <c r="D153" t="s">
-        <v>1053</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -8051,7 +8195,7 @@
         <v>1054</v>
       </c>
       <c r="D154" t="s">
-        <v>1054</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8065,7 +8209,7 @@
         <v>1055</v>
       </c>
       <c r="D155" t="s">
-        <v>1708</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8079,7 +8223,7 @@
         <v>1056</v>
       </c>
       <c r="D156" t="s">
-        <v>1056</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -8093,7 +8237,7 @@
         <v>1057</v>
       </c>
       <c r="D157" t="s">
-        <v>1057</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -8107,7 +8251,7 @@
         <v>1058</v>
       </c>
       <c r="D158" t="s">
-        <v>1058</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -8121,7 +8265,7 @@
         <v>1059</v>
       </c>
       <c r="D159" t="s">
-        <v>1059</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -8135,7 +8279,7 @@
         <v>949</v>
       </c>
       <c r="D160" t="s">
-        <v>949</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -8149,7 +8293,7 @@
         <v>1060</v>
       </c>
       <c r="D161" t="s">
-        <v>1060</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -8163,7 +8307,7 @@
         <v>970</v>
       </c>
       <c r="D162" t="s">
-        <v>970</v>
+        <v>912</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -8177,7 +8321,7 @@
         <v>1061</v>
       </c>
       <c r="D163" t="s">
-        <v>1061</v>
+        <v>912</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -8191,7 +8335,7 @@
         <v>1062</v>
       </c>
       <c r="D164" t="s">
-        <v>1062</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -8205,7 +8349,7 @@
         <v>1063</v>
       </c>
       <c r="D165" t="s">
-        <v>1063</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -8219,7 +8363,7 @@
         <v>1064</v>
       </c>
       <c r="D166" t="s">
-        <v>1064</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8233,7 +8377,7 @@
         <v>1065</v>
       </c>
       <c r="D167" t="s">
-        <v>1065</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8247,7 +8391,7 @@
         <v>1066</v>
       </c>
       <c r="D168" t="s">
-        <v>1066</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -8261,7 +8405,7 @@
         <v>1067</v>
       </c>
       <c r="D169" t="s">
-        <v>1067</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -8275,7 +8419,7 @@
         <v>992</v>
       </c>
       <c r="D170" t="s">
-        <v>992</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -8289,7 +8433,7 @@
         <v>1068</v>
       </c>
       <c r="D171" t="s">
-        <v>1068</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -8303,7 +8447,7 @@
         <v>1069</v>
       </c>
       <c r="D172" t="s">
-        <v>1069</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -8317,7 +8461,7 @@
         <v>1070</v>
       </c>
       <c r="D173" t="s">
-        <v>1070</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8331,7 +8475,7 @@
         <v>1071</v>
       </c>
       <c r="D174" t="s">
-        <v>1071</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -8345,7 +8489,7 @@
         <v>1072</v>
       </c>
       <c r="D175" t="s">
-        <v>1072</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -8359,7 +8503,7 @@
         <v>1073</v>
       </c>
       <c r="D176" t="s">
-        <v>1073</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -8373,7 +8517,7 @@
         <v>1067</v>
       </c>
       <c r="D177" t="s">
-        <v>1067</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -8387,7 +8531,7 @@
         <v>957</v>
       </c>
       <c r="D178" t="s">
-        <v>957</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -8401,7 +8545,7 @@
         <v>1074</v>
       </c>
       <c r="D179" t="s">
-        <v>1074</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -8415,7 +8559,7 @@
         <v>928</v>
       </c>
       <c r="D180" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -8429,7 +8573,7 @@
         <v>1075</v>
       </c>
       <c r="D181" t="s">
-        <v>1709</v>
+        <v>912</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -8443,7 +8587,7 @@
         <v>1076</v>
       </c>
       <c r="D182" t="s">
-        <v>1076</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -8457,7 +8601,7 @@
         <v>1077</v>
       </c>
       <c r="D183" t="s">
-        <v>1077</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -8471,7 +8615,7 @@
         <v>1078</v>
       </c>
       <c r="D184" t="s">
-        <v>1078</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -8485,7 +8629,7 @@
         <v>1079</v>
       </c>
       <c r="D185" t="s">
-        <v>1710</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -8499,7 +8643,7 @@
         <v>949</v>
       </c>
       <c r="D186" t="s">
-        <v>949</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -8513,7 +8657,7 @@
         <v>949</v>
       </c>
       <c r="D187" t="s">
-        <v>949</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -8527,7 +8671,7 @@
         <v>1080</v>
       </c>
       <c r="D188" t="s">
-        <v>1080</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -8541,7 +8685,7 @@
         <v>1081</v>
       </c>
       <c r="D189" t="s">
-        <v>1711</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -8555,7 +8699,7 @@
         <v>970</v>
       </c>
       <c r="D190" t="s">
-        <v>970</v>
+        <v>912</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -8569,7 +8713,7 @@
         <v>1082</v>
       </c>
       <c r="D191" t="s">
-        <v>1082</v>
+        <v>912</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -8583,7 +8727,7 @@
         <v>1083</v>
       </c>
       <c r="D192" t="s">
-        <v>1083</v>
+        <v>912</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -8597,7 +8741,7 @@
         <v>1084</v>
       </c>
       <c r="D193" t="s">
-        <v>1084</v>
+        <v>912</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -8611,7 +8755,7 @@
         <v>1085</v>
       </c>
       <c r="D194" t="s">
-        <v>1085</v>
+        <v>912</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -8625,7 +8769,7 @@
         <v>1086</v>
       </c>
       <c r="D195" t="s">
-        <v>1086</v>
+        <v>912</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -8639,7 +8783,7 @@
         <v>1087</v>
       </c>
       <c r="D196" t="s">
-        <v>1087</v>
+        <v>912</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -8653,7 +8797,7 @@
         <v>1088</v>
       </c>
       <c r="D197" t="s">
-        <v>1088</v>
+        <v>912</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -8667,7 +8811,7 @@
         <v>1089</v>
       </c>
       <c r="D198" t="s">
-        <v>1089</v>
+        <v>912</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -8681,7 +8825,7 @@
         <v>949</v>
       </c>
       <c r="D199" t="s">
-        <v>949</v>
+        <v>912</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -8695,7 +8839,7 @@
         <v>1090</v>
       </c>
       <c r="D200" t="s">
-        <v>1090</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -8709,7 +8853,7 @@
         <v>1091</v>
       </c>
       <c r="D201" t="s">
-        <v>1091</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -8723,7 +8867,7 @@
         <v>1092</v>
       </c>
       <c r="D202" t="s">
-        <v>1712</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -8737,7 +8881,7 @@
         <v>1093</v>
       </c>
       <c r="D203" t="s">
-        <v>1713</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -8751,7 +8895,7 @@
         <v>1094</v>
       </c>
       <c r="D204" t="s">
-        <v>1714</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -8765,7 +8909,7 @@
         <v>1095</v>
       </c>
       <c r="D205" t="s">
-        <v>1095</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -8779,7 +8923,7 @@
         <v>1096</v>
       </c>
       <c r="D206" t="s">
-        <v>1096</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -8793,7 +8937,7 @@
         <v>1097</v>
       </c>
       <c r="D207" t="s">
-        <v>1097</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -8807,7 +8951,7 @@
         <v>1098</v>
       </c>
       <c r="D208" t="s">
-        <v>1098</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -8821,7 +8965,7 @@
         <v>1099</v>
       </c>
       <c r="D209" t="s">
-        <v>1099</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -8835,7 +8979,7 @@
         <v>1100</v>
       </c>
       <c r="D210" t="s">
-        <v>1715</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -8849,7 +8993,7 @@
         <v>997</v>
       </c>
       <c r="D211" t="s">
-        <v>997</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -8863,7 +9007,7 @@
         <v>1101</v>
       </c>
       <c r="D212" t="s">
-        <v>1716</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -8877,7 +9021,7 @@
         <v>1102</v>
       </c>
       <c r="D213" t="s">
-        <v>1102</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -8891,7 +9035,7 @@
         <v>949</v>
       </c>
       <c r="D214" t="s">
-        <v>949</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -8905,7 +9049,7 @@
         <v>1103</v>
       </c>
       <c r="D215" t="s">
-        <v>1717</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -8919,7 +9063,7 @@
         <v>1104</v>
       </c>
       <c r="D216" t="s">
-        <v>1718</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -8933,7 +9077,7 @@
         <v>1105</v>
       </c>
       <c r="D217" t="s">
-        <v>1105</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -8947,7 +9091,7 @@
         <v>1106</v>
       </c>
       <c r="D218" t="s">
-        <v>1106</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -8961,7 +9105,7 @@
         <v>1107</v>
       </c>
       <c r="D219" t="s">
-        <v>1719</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -8975,7 +9119,7 @@
         <v>1108</v>
       </c>
       <c r="D220" t="s">
-        <v>1720</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -8989,7 +9133,7 @@
         <v>1109</v>
       </c>
       <c r="D221" t="s">
-        <v>1109</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -9003,7 +9147,7 @@
         <v>997</v>
       </c>
       <c r="D222" t="s">
-        <v>997</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -9017,7 +9161,7 @@
         <v>1110</v>
       </c>
       <c r="D223" t="s">
-        <v>1110</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -9031,7 +9175,7 @@
         <v>1111</v>
       </c>
       <c r="D224" t="s">
-        <v>1111</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -9045,7 +9189,7 @@
         <v>1112</v>
       </c>
       <c r="D225" t="s">
-        <v>1112</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -9059,7 +9203,7 @@
         <v>1113</v>
       </c>
       <c r="D226" t="s">
-        <v>1721</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -9073,7 +9217,7 @@
         <v>1114</v>
       </c>
       <c r="D227" t="s">
-        <v>1114</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -9087,7 +9231,7 @@
         <v>1115</v>
       </c>
       <c r="D228" t="s">
-        <v>1722</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -9101,7 +9245,7 @@
         <v>1116</v>
       </c>
       <c r="D229" t="s">
-        <v>1116</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9115,7 +9259,7 @@
         <v>1117</v>
       </c>
       <c r="D230" t="s">
-        <v>1117</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -9129,7 +9273,7 @@
         <v>949</v>
       </c>
       <c r="D231" t="s">
-        <v>949</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -9143,7 +9287,7 @@
         <v>1118</v>
       </c>
       <c r="D232" t="s">
-        <v>1118</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -9157,7 +9301,7 @@
         <v>1109</v>
       </c>
       <c r="D233" t="s">
-        <v>1109</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -9171,7 +9315,7 @@
         <v>1119</v>
       </c>
       <c r="D234" t="s">
-        <v>1119</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -9185,7 +9329,7 @@
         <v>1120</v>
       </c>
       <c r="D235" t="s">
-        <v>1120</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -9199,7 +9343,7 @@
         <v>1121</v>
       </c>
       <c r="D236" t="s">
-        <v>1121</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -9213,7 +9357,7 @@
         <v>1122</v>
       </c>
       <c r="D237" t="s">
-        <v>1122</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -9227,7 +9371,7 @@
         <v>1123</v>
       </c>
       <c r="D238" t="s">
-        <v>1123</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -9241,7 +9385,7 @@
         <v>1124</v>
       </c>
       <c r="D239" t="s">
-        <v>1124</v>
+        <v>912</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -9255,7 +9399,7 @@
         <v>1125</v>
       </c>
       <c r="D240" t="s">
-        <v>1125</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -9269,7 +9413,7 @@
         <v>1126</v>
       </c>
       <c r="D241" t="s">
-        <v>1126</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -9283,7 +9427,7 @@
         <v>1127</v>
       </c>
       <c r="D242" t="s">
-        <v>1127</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -9297,7 +9441,7 @@
         <v>1128</v>
       </c>
       <c r="D243" t="s">
-        <v>1128</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -9311,7 +9455,7 @@
         <v>1129</v>
       </c>
       <c r="D244" t="s">
-        <v>1129</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -9325,7 +9469,7 @@
         <v>1130</v>
       </c>
       <c r="D245" t="s">
-        <v>1130</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -9339,7 +9483,7 @@
         <v>1131</v>
       </c>
       <c r="D246" t="s">
-        <v>1131</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -9353,7 +9497,7 @@
         <v>1132</v>
       </c>
       <c r="D247" t="s">
-        <v>1132</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -9367,7 +9511,7 @@
         <v>1133</v>
       </c>
       <c r="D248" t="s">
-        <v>1133</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -9381,7 +9525,7 @@
         <v>1134</v>
       </c>
       <c r="D249" t="s">
-        <v>1134</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -9395,7 +9539,7 @@
         <v>936</v>
       </c>
       <c r="D250" t="s">
-        <v>936</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -9409,7 +9553,7 @@
         <v>1135</v>
       </c>
       <c r="D251" t="s">
-        <v>1135</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -9423,7 +9567,7 @@
         <v>1136</v>
       </c>
       <c r="D252" t="s">
-        <v>1136</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -9437,7 +9581,7 @@
         <v>1137</v>
       </c>
       <c r="D253" t="s">
-        <v>1137</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -9451,7 +9595,7 @@
         <v>1138</v>
       </c>
       <c r="D254" t="s">
-        <v>1138</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -9465,7 +9609,7 @@
         <v>1139</v>
       </c>
       <c r="D255" t="s">
-        <v>1723</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -9479,7 +9623,7 @@
         <v>1140</v>
       </c>
       <c r="D256" t="s">
-        <v>1140</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -9493,7 +9637,7 @@
         <v>1141</v>
       </c>
       <c r="D257" t="s">
-        <v>1141</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -9507,7 +9651,7 @@
         <v>1142</v>
       </c>
       <c r="D258" t="s">
-        <v>1142</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -9521,7 +9665,7 @@
         <v>949</v>
       </c>
       <c r="D259" t="s">
-        <v>949</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -9535,7 +9679,7 @@
         <v>1143</v>
       </c>
       <c r="D260" t="s">
-        <v>1724</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -9549,7 +9693,7 @@
         <v>1144</v>
       </c>
       <c r="D261" t="s">
-        <v>1725</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -9563,7 +9707,7 @@
         <v>1145</v>
       </c>
       <c r="D262" t="s">
-        <v>1145</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -9577,7 +9721,7 @@
         <v>1146</v>
       </c>
       <c r="D263" t="s">
-        <v>1146</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -9591,7 +9735,7 @@
         <v>949</v>
       </c>
       <c r="D264" t="s">
-        <v>949</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -9605,7 +9749,7 @@
         <v>1147</v>
       </c>
       <c r="D265" t="s">
-        <v>1147</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -9619,7 +9763,7 @@
         <v>1148</v>
       </c>
       <c r="D266" t="s">
-        <v>1726</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -9633,7 +9777,7 @@
         <v>1149</v>
       </c>
       <c r="D267" t="s">
-        <v>1149</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -9647,7 +9791,7 @@
         <v>949</v>
       </c>
       <c r="D268" t="s">
-        <v>949</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -9661,7 +9805,7 @@
         <v>1150</v>
       </c>
       <c r="D269" t="s">
-        <v>1150</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -9675,7 +9819,7 @@
         <v>1151</v>
       </c>
       <c r="D270" t="s">
-        <v>1151</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -9689,7 +9833,7 @@
         <v>997</v>
       </c>
       <c r="D271" t="s">
-        <v>997</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -9703,7 +9847,7 @@
         <v>1152</v>
       </c>
       <c r="D272" t="s">
-        <v>1152</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -9717,7 +9861,7 @@
         <v>1153</v>
       </c>
       <c r="D273" t="s">
-        <v>1153</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -9731,7 +9875,7 @@
         <v>1154</v>
       </c>
       <c r="D274" t="s">
-        <v>1727</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -9745,7 +9889,7 @@
         <v>1155</v>
       </c>
       <c r="D275" t="s">
-        <v>1155</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -9759,7 +9903,7 @@
         <v>1156</v>
       </c>
       <c r="D276" t="s">
-        <v>1728</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -9773,7 +9917,7 @@
         <v>1157</v>
       </c>
       <c r="D277" t="s">
-        <v>1157</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -9787,7 +9931,7 @@
         <v>1158</v>
       </c>
       <c r="D278" t="s">
-        <v>1158</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -9801,7 +9945,7 @@
         <v>1159</v>
       </c>
       <c r="D279" t="s">
-        <v>1159</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -9815,7 +9959,7 @@
         <v>1160</v>
       </c>
       <c r="D280" t="s">
-        <v>1160</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -9829,7 +9973,7 @@
         <v>1161</v>
       </c>
       <c r="D281" t="s">
-        <v>1161</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -9843,7 +9987,7 @@
         <v>1162</v>
       </c>
       <c r="D282" t="s">
-        <v>1162</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -9857,7 +10001,7 @@
         <v>1163</v>
       </c>
       <c r="D283" t="s">
-        <v>1163</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -9871,7 +10015,7 @@
         <v>1164</v>
       </c>
       <c r="D284" t="s">
-        <v>1164</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -9885,7 +10029,7 @@
         <v>1165</v>
       </c>
       <c r="D285" t="s">
-        <v>1729</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -9899,7 +10043,7 @@
         <v>1166</v>
       </c>
       <c r="D286" t="s">
-        <v>1730</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -9913,7 +10057,7 @@
         <v>1167</v>
       </c>
       <c r="D287" t="s">
-        <v>1167</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -9927,7 +10071,7 @@
         <v>1168</v>
       </c>
       <c r="D288" t="s">
-        <v>1168</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -9941,7 +10085,7 @@
         <v>949</v>
       </c>
       <c r="D289" t="s">
-        <v>949</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -9955,7 +10099,7 @@
         <v>1169</v>
       </c>
       <c r="D290" t="s">
-        <v>1169</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -9969,7 +10113,7 @@
         <v>1141</v>
       </c>
       <c r="D291" t="s">
-        <v>1141</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -9983,7 +10127,7 @@
         <v>1170</v>
       </c>
       <c r="D292" t="s">
-        <v>1170</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -9997,7 +10141,7 @@
         <v>1171</v>
       </c>
       <c r="D293" t="s">
-        <v>1171</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -10011,7 +10155,7 @@
         <v>1172</v>
       </c>
       <c r="D294" t="s">
-        <v>1172</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -10025,7 +10169,7 @@
         <v>1173</v>
       </c>
       <c r="D295" t="s">
-        <v>1731</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -10039,7 +10183,7 @@
         <v>1174</v>
       </c>
       <c r="D296" t="s">
-        <v>1174</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -10053,7 +10197,7 @@
         <v>1175</v>
       </c>
       <c r="D297" t="s">
-        <v>1732</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -10067,7 +10211,7 @@
         <v>1176</v>
       </c>
       <c r="D298" t="s">
-        <v>1176</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -10081,7 +10225,7 @@
         <v>1177</v>
       </c>
       <c r="D299" t="s">
-        <v>1177</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -10095,7 +10239,7 @@
         <v>1178</v>
       </c>
       <c r="D300" t="s">
-        <v>1178</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -10109,7 +10253,7 @@
         <v>1179</v>
       </c>
       <c r="D301" t="s">
-        <v>1733</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -10123,7 +10267,7 @@
         <v>1162</v>
       </c>
       <c r="D302" t="s">
-        <v>1162</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -10137,7 +10281,7 @@
         <v>1180</v>
       </c>
       <c r="D303" t="s">
-        <v>1180</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -10151,7 +10295,7 @@
         <v>1181</v>
       </c>
       <c r="D304" t="s">
-        <v>1181</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -10165,7 +10309,7 @@
         <v>1182</v>
       </c>
       <c r="D305" t="s">
-        <v>1734</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -10179,7 +10323,7 @@
         <v>1183</v>
       </c>
       <c r="D306" t="s">
-        <v>1183</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -10193,7 +10337,7 @@
         <v>1184</v>
       </c>
       <c r="D307" t="s">
-        <v>1184</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -10207,7 +10351,7 @@
         <v>1185</v>
       </c>
       <c r="D308" t="s">
-        <v>1735</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -10221,7 +10365,7 @@
         <v>1186</v>
       </c>
       <c r="D309" t="s">
-        <v>1186</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -10235,7 +10379,7 @@
         <v>1187</v>
       </c>
       <c r="D310" t="s">
-        <v>1187</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -10249,7 +10393,7 @@
         <v>1188</v>
       </c>
       <c r="D311" t="s">
-        <v>1188</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -10263,7 +10407,7 @@
         <v>1189</v>
       </c>
       <c r="D312" t="s">
-        <v>1736</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -10277,7 +10421,7 @@
         <v>1190</v>
       </c>
       <c r="D313" t="s">
-        <v>1190</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -10291,7 +10435,7 @@
         <v>1191</v>
       </c>
       <c r="D314" t="s">
-        <v>1191</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -10305,7 +10449,7 @@
         <v>1192</v>
       </c>
       <c r="D315" t="s">
-        <v>1192</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -10319,7 +10463,7 @@
         <v>1193</v>
       </c>
       <c r="D316" t="s">
-        <v>1737</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -10333,7 +10477,7 @@
         <v>1194</v>
       </c>
       <c r="D317" t="s">
-        <v>1194</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -10347,7 +10491,7 @@
         <v>1195</v>
       </c>
       <c r="D318" t="s">
-        <v>1195</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -10361,7 +10505,7 @@
         <v>1196</v>
       </c>
       <c r="D319" t="s">
-        <v>1196</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -10375,7 +10519,7 @@
         <v>1197</v>
       </c>
       <c r="D320" t="s">
-        <v>1738</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -10389,7 +10533,7 @@
         <v>1198</v>
       </c>
       <c r="D321" t="s">
-        <v>1198</v>
+        <v>912</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -10403,7 +10547,7 @@
         <v>1199</v>
       </c>
       <c r="D322" t="s">
-        <v>1739</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -10417,7 +10561,7 @@
         <v>1200</v>
       </c>
       <c r="D323" t="s">
-        <v>1200</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -10431,7 +10575,7 @@
         <v>1201</v>
       </c>
       <c r="D324" t="s">
-        <v>1201</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -10445,7 +10589,7 @@
         <v>1202</v>
       </c>
       <c r="D325" t="s">
-        <v>1202</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -10459,7 +10603,7 @@
         <v>1009</v>
       </c>
       <c r="D326" t="s">
-        <v>1009</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -10473,7 +10617,7 @@
         <v>1203</v>
       </c>
       <c r="D327" t="s">
-        <v>1203</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -10487,7 +10631,7 @@
         <v>1204</v>
       </c>
       <c r="D328" t="s">
-        <v>1204</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -10501,7 +10645,7 @@
         <v>1205</v>
       </c>
       <c r="D329" t="s">
-        <v>1205</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -10515,7 +10659,7 @@
         <v>986</v>
       </c>
       <c r="D330" t="s">
-        <v>986</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -10529,7 +10673,7 @@
         <v>1206</v>
       </c>
       <c r="D331" t="s">
-        <v>1740</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -10543,7 +10687,7 @@
         <v>1207</v>
       </c>
       <c r="D332" t="s">
-        <v>1207</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -10557,7 +10701,7 @@
         <v>1208</v>
       </c>
       <c r="D333" t="s">
-        <v>1208</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -10571,7 +10715,7 @@
         <v>1209</v>
       </c>
       <c r="D334" t="s">
-        <v>1209</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -10585,7 +10729,7 @@
         <v>1210</v>
       </c>
       <c r="D335" t="s">
-        <v>1210</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -10599,7 +10743,7 @@
         <v>1211</v>
       </c>
       <c r="D336" t="s">
-        <v>1211</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -10613,7 +10757,7 @@
         <v>1212</v>
       </c>
       <c r="D337" t="s">
-        <v>1212</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -10627,7 +10771,7 @@
         <v>1213</v>
       </c>
       <c r="D338" t="s">
-        <v>1213</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -10641,7 +10785,7 @@
         <v>1214</v>
       </c>
       <c r="D339" t="s">
-        <v>1741</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -10655,7 +10799,7 @@
         <v>1215</v>
       </c>
       <c r="D340" t="s">
-        <v>1215</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -10669,7 +10813,7 @@
         <v>1216</v>
       </c>
       <c r="D341" t="s">
-        <v>1216</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -10683,7 +10827,7 @@
         <v>1217</v>
       </c>
       <c r="D342" t="s">
-        <v>1217</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -10697,7 +10841,7 @@
         <v>1218</v>
       </c>
       <c r="D343" t="s">
-        <v>1742</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -10711,7 +10855,7 @@
         <v>1219</v>
       </c>
       <c r="D344" t="s">
-        <v>1219</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -10725,7 +10869,7 @@
         <v>1220</v>
       </c>
       <c r="D345" t="s">
-        <v>1220</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -10739,7 +10883,7 @@
         <v>942</v>
       </c>
       <c r="D346" t="s">
-        <v>942</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -10753,7 +10897,7 @@
         <v>1111</v>
       </c>
       <c r="D347" t="s">
-        <v>1111</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -10767,7 +10911,7 @@
         <v>1221</v>
       </c>
       <c r="D348" t="s">
-        <v>1221</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -10781,7 +10925,7 @@
         <v>1222</v>
       </c>
       <c r="D349" t="s">
-        <v>1743</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -10795,7 +10939,7 @@
         <v>1223</v>
       </c>
       <c r="D350" t="s">
-        <v>1223</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -10809,7 +10953,7 @@
         <v>1224</v>
       </c>
       <c r="D351" t="s">
-        <v>1744</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -10823,7 +10967,7 @@
         <v>997</v>
       </c>
       <c r="D352" t="s">
-        <v>997</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -10837,7 +10981,7 @@
         <v>1225</v>
       </c>
       <c r="D353" t="s">
-        <v>1225</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -10851,7 +10995,7 @@
         <v>1009</v>
       </c>
       <c r="D354" t="s">
-        <v>1009</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -10865,7 +11009,7 @@
         <v>1226</v>
       </c>
       <c r="D355" t="s">
-        <v>1745</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -10879,7 +11023,7 @@
         <v>1009</v>
       </c>
       <c r="D356" t="s">
-        <v>1009</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -10893,7 +11037,7 @@
         <v>1227</v>
       </c>
       <c r="D357" t="s">
-        <v>1227</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -10907,7 +11051,7 @@
         <v>970</v>
       </c>
       <c r="D358" t="s">
-        <v>970</v>
+        <v>912</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -10921,7 +11065,7 @@
         <v>1228</v>
       </c>
       <c r="D359" t="s">
-        <v>1228</v>
+        <v>912</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -10935,7 +11079,7 @@
         <v>1229</v>
       </c>
       <c r="D360" t="s">
-        <v>1229</v>
+        <v>912</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -10949,7 +11093,7 @@
         <v>1230</v>
       </c>
       <c r="D361" t="s">
-        <v>1230</v>
+        <v>912</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -10963,7 +11107,7 @@
         <v>1009</v>
       </c>
       <c r="D362" t="s">
-        <v>1009</v>
+        <v>912</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -10977,7 +11121,7 @@
         <v>1231</v>
       </c>
       <c r="D363" t="s">
-        <v>1746</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -10991,7 +11135,7 @@
         <v>1232</v>
       </c>
       <c r="D364" t="s">
-        <v>1747</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -11005,7 +11149,7 @@
         <v>1233</v>
       </c>
       <c r="D365" t="s">
-        <v>1748</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -11019,7 +11163,7 @@
         <v>1002</v>
       </c>
       <c r="D366" t="s">
-        <v>1002</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -11033,7 +11177,7 @@
         <v>1234</v>
       </c>
       <c r="D367" t="s">
-        <v>1234</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -11047,7 +11191,7 @@
         <v>1235</v>
       </c>
       <c r="D368" t="s">
-        <v>1749</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -11061,7 +11205,7 @@
         <v>1236</v>
       </c>
       <c r="D369" t="s">
-        <v>1236</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -11075,7 +11219,7 @@
         <v>1237</v>
       </c>
       <c r="D370" t="s">
-        <v>1237</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -11089,7 +11233,7 @@
         <v>1009</v>
       </c>
       <c r="D371" t="s">
-        <v>1009</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -11103,7 +11247,7 @@
         <v>949</v>
       </c>
       <c r="D372" t="s">
-        <v>949</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -11117,7 +11261,7 @@
         <v>1238</v>
       </c>
       <c r="D373" t="s">
-        <v>1238</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -11131,7 +11275,7 @@
         <v>1239</v>
       </c>
       <c r="D374" t="s">
-        <v>1239</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -11145,7 +11289,7 @@
         <v>1240</v>
       </c>
       <c r="D375" t="s">
-        <v>1240</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -11159,7 +11303,7 @@
         <v>1241</v>
       </c>
       <c r="D376" t="s">
-        <v>1241</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -11173,7 +11317,7 @@
         <v>949</v>
       </c>
       <c r="D377" t="s">
-        <v>949</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -11187,7 +11331,7 @@
         <v>1242</v>
       </c>
       <c r="D378" t="s">
-        <v>1242</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -11201,7 +11345,7 @@
         <v>1243</v>
       </c>
       <c r="D379" t="s">
-        <v>1243</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -11215,7 +11359,7 @@
         <v>1244</v>
       </c>
       <c r="D380" t="s">
-        <v>1244</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -11229,7 +11373,7 @@
         <v>1245</v>
       </c>
       <c r="D381" t="s">
-        <v>1245</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -11243,7 +11387,7 @@
         <v>1246</v>
       </c>
       <c r="D382" t="s">
-        <v>1246</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -11257,7 +11401,7 @@
         <v>1247</v>
       </c>
       <c r="D383" t="s">
-        <v>1750</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -11271,7 +11415,7 @@
         <v>1248</v>
       </c>
       <c r="D384" t="s">
-        <v>1248</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -11285,7 +11429,7 @@
         <v>1249</v>
       </c>
       <c r="D385" t="s">
-        <v>1751</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -11299,7 +11443,7 @@
         <v>1250</v>
       </c>
       <c r="D386" t="s">
-        <v>1250</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -11313,7 +11457,7 @@
         <v>1251</v>
       </c>
       <c r="D387" t="s">
-        <v>1752</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -11327,7 +11471,7 @@
         <v>1252</v>
       </c>
       <c r="D388" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -11341,7 +11485,7 @@
         <v>1253</v>
       </c>
       <c r="D389" t="s">
-        <v>1253</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -11355,7 +11499,7 @@
         <v>1254</v>
       </c>
       <c r="D390" t="s">
-        <v>1754</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -11369,7 +11513,7 @@
         <v>1255</v>
       </c>
       <c r="D391" t="s">
-        <v>1755</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -11383,7 +11527,7 @@
         <v>1256</v>
       </c>
       <c r="D392" t="s">
-        <v>1256</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -11397,7 +11541,7 @@
         <v>1257</v>
       </c>
       <c r="D393" t="s">
-        <v>1756</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -11411,7 +11555,7 @@
         <v>1258</v>
       </c>
       <c r="D394" t="s">
-        <v>1258</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -11425,7 +11569,7 @@
         <v>1259</v>
       </c>
       <c r="D395" t="s">
-        <v>1757</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -11439,7 +11583,7 @@
         <v>1260</v>
       </c>
       <c r="D396" t="s">
-        <v>1260</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -11453,7 +11597,7 @@
         <v>1035</v>
       </c>
       <c r="D397" t="s">
-        <v>1035</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -11467,7 +11611,7 @@
         <v>1261</v>
       </c>
       <c r="D398" t="s">
-        <v>1261</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -11481,7 +11625,7 @@
         <v>1262</v>
       </c>
       <c r="D399" t="s">
-        <v>1262</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -11495,7 +11639,7 @@
         <v>1263</v>
       </c>
       <c r="D400" t="s">
-        <v>1758</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -11509,7 +11653,7 @@
         <v>1264</v>
       </c>
       <c r="D401" t="s">
-        <v>1264</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -11523,7 +11667,7 @@
         <v>1265</v>
       </c>
       <c r="D402" t="s">
-        <v>1265</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -11537,7 +11681,7 @@
         <v>1266</v>
       </c>
       <c r="D403" t="s">
-        <v>1266</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -11551,7 +11695,7 @@
         <v>1267</v>
       </c>
       <c r="D404" t="s">
-        <v>1267</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -11565,7 +11709,7 @@
         <v>1268</v>
       </c>
       <c r="D405" t="s">
-        <v>1268</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -11579,7 +11723,7 @@
         <v>1269</v>
       </c>
       <c r="D406" t="s">
-        <v>1269</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -11593,7 +11737,7 @@
         <v>1270</v>
       </c>
       <c r="D407" t="s">
-        <v>1270</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -11607,7 +11751,7 @@
         <v>1271</v>
       </c>
       <c r="D408" t="s">
-        <v>1271</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -11621,7 +11765,7 @@
         <v>1272</v>
       </c>
       <c r="D409" t="s">
-        <v>1272</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -11635,7 +11779,7 @@
         <v>1273</v>
       </c>
       <c r="D410" t="s">
-        <v>1273</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -11649,7 +11793,7 @@
         <v>1274</v>
       </c>
       <c r="D411" t="s">
-        <v>1274</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -11663,7 +11807,7 @@
         <v>1275</v>
       </c>
       <c r="D412" t="s">
-        <v>1275</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -11677,7 +11821,7 @@
         <v>1276</v>
       </c>
       <c r="D413" t="s">
-        <v>1276</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -11691,7 +11835,7 @@
         <v>1277</v>
       </c>
       <c r="D414" t="s">
-        <v>1277</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -11705,7 +11849,7 @@
         <v>1278</v>
       </c>
       <c r="D415" t="s">
-        <v>1278</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -11719,7 +11863,7 @@
         <v>1279</v>
       </c>
       <c r="D416" t="s">
-        <v>1279</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -11733,7 +11877,7 @@
         <v>1280</v>
       </c>
       <c r="D417" t="s">
-        <v>1280</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -11747,7 +11891,7 @@
         <v>1281</v>
       </c>
       <c r="D418" t="s">
-        <v>1759</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -11761,7 +11905,7 @@
         <v>1009</v>
       </c>
       <c r="D419" t="s">
-        <v>1009</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -11775,7 +11919,7 @@
         <v>1282</v>
       </c>
       <c r="D420" t="s">
-        <v>1282</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -11789,7 +11933,7 @@
         <v>928</v>
       </c>
       <c r="D421" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -11803,7 +11947,7 @@
         <v>1283</v>
       </c>
       <c r="D422" t="s">
-        <v>1283</v>
+        <v>912</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -11817,7 +11961,7 @@
         <v>1284</v>
       </c>
       <c r="D423" t="s">
-        <v>1284</v>
+        <v>912</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -11831,7 +11975,7 @@
         <v>1285</v>
       </c>
       <c r="D424" t="s">
-        <v>1285</v>
+        <v>912</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -11845,7 +11989,7 @@
         <v>1286</v>
       </c>
       <c r="D425" t="s">
-        <v>1286</v>
+        <v>912</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -11859,7 +12003,7 @@
         <v>1287</v>
       </c>
       <c r="D426" t="s">
-        <v>1287</v>
+        <v>912</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -11873,7 +12017,7 @@
         <v>1288</v>
       </c>
       <c r="D427" t="s">
-        <v>1760</v>
+        <v>912</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -11887,7 +12031,7 @@
         <v>1289</v>
       </c>
       <c r="D428" t="s">
-        <v>1289</v>
+        <v>912</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -11901,7 +12045,7 @@
         <v>1290</v>
       </c>
       <c r="D429" t="s">
-        <v>1290</v>
+        <v>912</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -11915,7 +12059,7 @@
         <v>1291</v>
       </c>
       <c r="D430" t="s">
-        <v>1291</v>
+        <v>912</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -11929,7 +12073,7 @@
         <v>1292</v>
       </c>
       <c r="D431" t="s">
-        <v>1761</v>
+        <v>912</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -11943,7 +12087,7 @@
         <v>1293</v>
       </c>
       <c r="D432" t="s">
-        <v>1293</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -11957,7 +12101,7 @@
         <v>1294</v>
       </c>
       <c r="D433" t="s">
-        <v>1294</v>
+        <v>912</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -11971,7 +12115,7 @@
         <v>1295</v>
       </c>
       <c r="D434" t="s">
-        <v>1295</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -11985,7 +12129,7 @@
         <v>1296</v>
       </c>
       <c r="D435" t="s">
-        <v>1296</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -11999,7 +12143,7 @@
         <v>1181</v>
       </c>
       <c r="D436" t="s">
-        <v>1181</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -12013,7 +12157,7 @@
         <v>1297</v>
       </c>
       <c r="D437" t="s">
-        <v>1297</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -12027,7 +12171,7 @@
         <v>1298</v>
       </c>
       <c r="D438" t="s">
-        <v>1298</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -12041,7 +12185,7 @@
         <v>1299</v>
       </c>
       <c r="D439" t="s">
-        <v>1299</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -12055,7 +12199,7 @@
         <v>1300</v>
       </c>
       <c r="D440" t="s">
-        <v>1300</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -12069,7 +12213,7 @@
         <v>1301</v>
       </c>
       <c r="D441" t="s">
-        <v>1301</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -12083,7 +12227,7 @@
         <v>1302</v>
       </c>
       <c r="D442" t="s">
-        <v>1302</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -12097,7 +12241,7 @@
         <v>1124</v>
       </c>
       <c r="D443" t="s">
-        <v>1124</v>
+        <v>912</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -12111,7 +12255,7 @@
         <v>1303</v>
       </c>
       <c r="D444" t="s">
-        <v>1303</v>
+        <v>912</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -12125,7 +12269,7 @@
         <v>1304</v>
       </c>
       <c r="D445" t="s">
-        <v>1304</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -12139,7 +12283,7 @@
         <v>1305</v>
       </c>
       <c r="D446" t="s">
-        <v>1305</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -12153,7 +12297,7 @@
         <v>1306</v>
       </c>
       <c r="D447" t="s">
-        <v>1306</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -12167,7 +12311,7 @@
         <v>1124</v>
       </c>
       <c r="D448" t="s">
-        <v>1124</v>
+        <v>912</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -12181,7 +12325,7 @@
         <v>1307</v>
       </c>
       <c r="D449" t="s">
-        <v>1762</v>
+        <v>912</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -12195,7 +12339,7 @@
         <v>1308</v>
       </c>
       <c r="D450" t="s">
-        <v>1308</v>
+        <v>912</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -12209,7 +12353,7 @@
         <v>1309</v>
       </c>
       <c r="D451" t="s">
-        <v>1309</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -12223,7 +12367,7 @@
         <v>1109</v>
       </c>
       <c r="D452" t="s">
-        <v>1109</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -12237,7 +12381,7 @@
         <v>1310</v>
       </c>
       <c r="D453" t="s">
-        <v>1310</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -12251,7 +12395,7 @@
         <v>1311</v>
       </c>
       <c r="D454" t="s">
-        <v>1311</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -12265,7 +12409,7 @@
         <v>1312</v>
       </c>
       <c r="D455" t="s">
-        <v>1312</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -12279,7 +12423,7 @@
         <v>1313</v>
       </c>
       <c r="D456" t="s">
-        <v>1313</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -12293,7 +12437,7 @@
         <v>1314</v>
       </c>
       <c r="D457" t="s">
-        <v>1314</v>
+        <v>912</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -12307,7 +12451,7 @@
         <v>1313</v>
       </c>
       <c r="D458" t="s">
-        <v>1313</v>
+        <v>912</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -12321,7 +12465,7 @@
         <v>1315</v>
       </c>
       <c r="D459" t="s">
-        <v>1315</v>
+        <v>912</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -12335,7 +12479,7 @@
         <v>1316</v>
       </c>
       <c r="D460" t="s">
-        <v>1316</v>
+        <v>912</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -12349,7 +12493,7 @@
         <v>1317</v>
       </c>
       <c r="D461" t="s">
-        <v>1317</v>
+        <v>912</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -12363,7 +12507,7 @@
         <v>1318</v>
       </c>
       <c r="D462" t="s">
-        <v>1318</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -12377,7 +12521,7 @@
         <v>1319</v>
       </c>
       <c r="D463" t="s">
-        <v>1763</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -12391,7 +12535,7 @@
         <v>1320</v>
       </c>
       <c r="D464" t="s">
-        <v>1320</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -12405,7 +12549,7 @@
         <v>1321</v>
       </c>
       <c r="D465" t="s">
-        <v>1321</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -12419,7 +12563,7 @@
         <v>1322</v>
       </c>
       <c r="D466" t="s">
-        <v>1764</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -12433,7 +12577,7 @@
         <v>949</v>
       </c>
       <c r="D467" t="s">
-        <v>949</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -12447,7 +12591,7 @@
         <v>1323</v>
       </c>
       <c r="D468" t="s">
-        <v>1323</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -12461,7 +12605,7 @@
         <v>1324</v>
       </c>
       <c r="D469" t="s">
-        <v>1765</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -12475,7 +12619,7 @@
         <v>1325</v>
       </c>
       <c r="D470" t="s">
-        <v>1325</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -12489,7 +12633,7 @@
         <v>1326</v>
       </c>
       <c r="D471" t="s">
-        <v>1326</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -12503,7 +12647,7 @@
         <v>1327</v>
       </c>
       <c r="D472" t="s">
-        <v>1327</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -12517,7 +12661,7 @@
         <v>1328</v>
       </c>
       <c r="D473" t="s">
-        <v>1328</v>
+        <v>912</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -12531,7 +12675,7 @@
         <v>1329</v>
       </c>
       <c r="D474" t="s">
-        <v>1329</v>
+        <v>912</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -12545,7 +12689,7 @@
         <v>1330</v>
       </c>
       <c r="D475" t="s">
-        <v>1766</v>
+        <v>912</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -12559,7 +12703,7 @@
         <v>1331</v>
       </c>
       <c r="D476" t="s">
-        <v>1331</v>
+        <v>912</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -12573,7 +12717,7 @@
         <v>1332</v>
       </c>
       <c r="D477" t="s">
-        <v>1767</v>
+        <v>912</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -12587,7 +12731,7 @@
         <v>1333</v>
       </c>
       <c r="D478" t="s">
-        <v>1333</v>
+        <v>912</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -12601,7 +12745,7 @@
         <v>1334</v>
       </c>
       <c r="D479" t="s">
-        <v>1334</v>
+        <v>912</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -12615,7 +12759,7 @@
         <v>1335</v>
       </c>
       <c r="D480" t="s">
-        <v>1335</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -12629,7 +12773,7 @@
         <v>1336</v>
       </c>
       <c r="D481" t="s">
-        <v>1336</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -12643,7 +12787,7 @@
         <v>1337</v>
       </c>
       <c r="D482" t="s">
-        <v>1337</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -12657,7 +12801,7 @@
         <v>1338</v>
       </c>
       <c r="D483" t="s">
-        <v>1338</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -12671,7 +12815,7 @@
         <v>1339</v>
       </c>
       <c r="D484" t="s">
-        <v>1339</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -12685,7 +12829,7 @@
         <v>1340</v>
       </c>
       <c r="D485" t="s">
-        <v>1340</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -12699,7 +12843,7 @@
         <v>1341</v>
       </c>
       <c r="D486" t="s">
-        <v>1341</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -12713,7 +12857,7 @@
         <v>1342</v>
       </c>
       <c r="D487" t="s">
-        <v>1768</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -12727,7 +12871,7 @@
         <v>1124</v>
       </c>
       <c r="D488" t="s">
-        <v>1124</v>
+        <v>912</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -12741,7 +12885,7 @@
         <v>1343</v>
       </c>
       <c r="D489" t="s">
-        <v>1343</v>
+        <v>912</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -12755,7 +12899,7 @@
         <v>1344</v>
       </c>
       <c r="D490" t="s">
-        <v>1344</v>
+        <v>912</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -12769,7 +12913,7 @@
         <v>1345</v>
       </c>
       <c r="D491" t="s">
-        <v>1345</v>
+        <v>912</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -12783,7 +12927,7 @@
         <v>1124</v>
       </c>
       <c r="D492" t="s">
-        <v>1124</v>
+        <v>912</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -12797,7 +12941,7 @@
         <v>1346</v>
       </c>
       <c r="D493" t="s">
-        <v>1346</v>
+        <v>912</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -12811,7 +12955,7 @@
         <v>1347</v>
       </c>
       <c r="D494" t="s">
-        <v>1347</v>
+        <v>912</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -12825,7 +12969,7 @@
         <v>1348</v>
       </c>
       <c r="D495" t="s">
-        <v>1348</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -12839,7 +12983,7 @@
         <v>1349</v>
       </c>
       <c r="D496" t="s">
-        <v>1349</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -12853,7 +12997,7 @@
         <v>1350</v>
       </c>
       <c r="D497" t="s">
-        <v>1350</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -12867,7 +13011,7 @@
         <v>1351</v>
       </c>
       <c r="D498" t="s">
-        <v>1351</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -12881,7 +13025,7 @@
         <v>1352</v>
       </c>
       <c r="D499" t="s">
-        <v>1352</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -12895,7 +13039,7 @@
         <v>1353</v>
       </c>
       <c r="D500" t="s">
-        <v>1353</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -12909,7 +13053,7 @@
         <v>1354</v>
       </c>
       <c r="D501" t="s">
-        <v>1354</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -12923,7 +13067,7 @@
         <v>1355</v>
       </c>
       <c r="D502" t="s">
-        <v>1355</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -12937,7 +13081,7 @@
         <v>1356</v>
       </c>
       <c r="D503" t="s">
-        <v>1356</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -12951,7 +13095,7 @@
         <v>1357</v>
       </c>
       <c r="D504" t="s">
-        <v>1769</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -12965,7 +13109,7 @@
         <v>1096</v>
       </c>
       <c r="D505" t="s">
-        <v>1096</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -12979,7 +13123,7 @@
         <v>1358</v>
       </c>
       <c r="D506" t="s">
-        <v>1358</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -12993,7 +13137,7 @@
         <v>1359</v>
       </c>
       <c r="D507" t="s">
-        <v>1359</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -13007,7 +13151,7 @@
         <v>1360</v>
       </c>
       <c r="D508" t="s">
-        <v>1360</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -13021,7 +13165,7 @@
         <v>1361</v>
       </c>
       <c r="D509" t="s">
-        <v>1770</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -13035,7 +13179,7 @@
         <v>1362</v>
       </c>
       <c r="D510" t="s">
-        <v>1362</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -13049,7 +13193,7 @@
         <v>1035</v>
       </c>
       <c r="D511" t="s">
-        <v>1035</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -13063,7 +13207,7 @@
         <v>1363</v>
       </c>
       <c r="D512" t="s">
-        <v>1363</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -13077,7 +13221,7 @@
         <v>1212</v>
       </c>
       <c r="D513" t="s">
-        <v>1212</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -13091,7 +13235,7 @@
         <v>1364</v>
       </c>
       <c r="D514" t="s">
-        <v>1364</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -13105,7 +13249,7 @@
         <v>1365</v>
       </c>
       <c r="D515" t="s">
-        <v>1365</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -13119,7 +13263,7 @@
         <v>1366</v>
       </c>
       <c r="D516" t="s">
-        <v>1366</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -13133,7 +13277,7 @@
         <v>1367</v>
       </c>
       <c r="D517" t="s">
-        <v>1367</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -13147,7 +13291,7 @@
         <v>1368</v>
       </c>
       <c r="D518" t="s">
-        <v>1771</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -13161,7 +13305,7 @@
         <v>1369</v>
       </c>
       <c r="D519" t="s">
-        <v>1772</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -13175,7 +13319,7 @@
         <v>1370</v>
       </c>
       <c r="D520" t="s">
-        <v>1370</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -13189,7 +13333,7 @@
         <v>1371</v>
       </c>
       <c r="D521" t="s">
-        <v>1773</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -13203,7 +13347,7 @@
         <v>1372</v>
       </c>
       <c r="D522" t="s">
-        <v>1372</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -13217,7 +13361,7 @@
         <v>1373</v>
       </c>
       <c r="D523" t="s">
-        <v>1774</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -13231,7 +13375,7 @@
         <v>1374</v>
       </c>
       <c r="D524" t="s">
-        <v>1374</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -13245,7 +13389,7 @@
         <v>1375</v>
       </c>
       <c r="D525" t="s">
-        <v>1375</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -13259,7 +13403,7 @@
         <v>1376</v>
       </c>
       <c r="D526" t="s">
-        <v>1775</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -13273,7 +13417,7 @@
         <v>1377</v>
       </c>
       <c r="D527" t="s">
-        <v>1377</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -13287,7 +13431,7 @@
         <v>1378</v>
       </c>
       <c r="D528" t="s">
-        <v>1378</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -13301,7 +13445,7 @@
         <v>1379</v>
       </c>
       <c r="D529" t="s">
-        <v>1776</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -13315,7 +13459,7 @@
         <v>1380</v>
       </c>
       <c r="D530" t="s">
-        <v>1380</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -13329,7 +13473,7 @@
         <v>1381</v>
       </c>
       <c r="D531" t="s">
-        <v>1777</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -13343,7 +13487,7 @@
         <v>1382</v>
       </c>
       <c r="D532" t="s">
-        <v>1382</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -13357,7 +13501,7 @@
         <v>1383</v>
       </c>
       <c r="D533" t="s">
-        <v>1383</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -13371,7 +13515,7 @@
         <v>1384</v>
       </c>
       <c r="D534" t="s">
-        <v>1384</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -13385,7 +13529,7 @@
         <v>986</v>
       </c>
       <c r="D535" t="s">
-        <v>986</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -13399,7 +13543,7 @@
         <v>1385</v>
       </c>
       <c r="D536" t="s">
-        <v>1385</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -13413,7 +13557,7 @@
         <v>949</v>
       </c>
       <c r="D537" t="s">
-        <v>949</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -13427,7 +13571,7 @@
         <v>1386</v>
       </c>
       <c r="D538" t="s">
-        <v>1386</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -13441,7 +13585,7 @@
         <v>1387</v>
       </c>
       <c r="D539" t="s">
-        <v>1778</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -13455,7 +13599,7 @@
         <v>1388</v>
       </c>
       <c r="D540" t="s">
-        <v>1388</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -13469,7 +13613,7 @@
         <v>1389</v>
       </c>
       <c r="D541" t="s">
-        <v>1779</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -13483,7 +13627,7 @@
         <v>1390</v>
       </c>
       <c r="D542" t="s">
-        <v>1390</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -13497,7 +13641,7 @@
         <v>1141</v>
       </c>
       <c r="D543" t="s">
-        <v>1141</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -13511,7 +13655,7 @@
         <v>1391</v>
       </c>
       <c r="D544" t="s">
-        <v>1780</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -13525,7 +13669,7 @@
         <v>1392</v>
       </c>
       <c r="D545" t="s">
-        <v>1392</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -13539,7 +13683,7 @@
         <v>1393</v>
       </c>
       <c r="D546" t="s">
-        <v>1781</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -13553,7 +13697,7 @@
         <v>1394</v>
       </c>
       <c r="D547" t="s">
-        <v>1394</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -13567,7 +13711,7 @@
         <v>1109</v>
       </c>
       <c r="D548" t="s">
-        <v>1109</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -13581,7 +13725,7 @@
         <v>1395</v>
       </c>
       <c r="D549" t="s">
-        <v>1395</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -13595,7 +13739,7 @@
         <v>1396</v>
       </c>
       <c r="D550" t="s">
-        <v>1782</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -13609,7 +13753,7 @@
         <v>1397</v>
       </c>
       <c r="D551" t="s">
-        <v>1397</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -13623,7 +13767,7 @@
         <v>949</v>
       </c>
       <c r="D552" t="s">
-        <v>949</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -13637,7 +13781,7 @@
         <v>1398</v>
       </c>
       <c r="D553" t="s">
-        <v>1398</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -13651,7 +13795,7 @@
         <v>1109</v>
       </c>
       <c r="D554" t="s">
-        <v>1109</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -13665,7 +13809,7 @@
         <v>1399</v>
       </c>
       <c r="D555" t="s">
-        <v>1399</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -13679,7 +13823,7 @@
         <v>927</v>
       </c>
       <c r="D556" t="s">
-        <v>927</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -13693,7 +13837,7 @@
         <v>1400</v>
       </c>
       <c r="D557" t="s">
-        <v>1400</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -13707,7 +13851,7 @@
         <v>986</v>
       </c>
       <c r="D558" t="s">
-        <v>986</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -13721,7 +13865,7 @@
         <v>1401</v>
       </c>
       <c r="D559" t="s">
-        <v>1401</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -13735,7 +13879,7 @@
         <v>1402</v>
       </c>
       <c r="D560" t="s">
-        <v>1402</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -13749,7 +13893,7 @@
         <v>1403</v>
       </c>
       <c r="D561" t="s">
-        <v>1403</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -13763,7 +13907,7 @@
         <v>1404</v>
       </c>
       <c r="D562" t="s">
-        <v>1404</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -13777,7 +13921,7 @@
         <v>1405</v>
       </c>
       <c r="D563" t="s">
-        <v>1783</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -13791,7 +13935,7 @@
         <v>1406</v>
       </c>
       <c r="D564" t="s">
-        <v>1784</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -13805,7 +13949,7 @@
         <v>1407</v>
       </c>
       <c r="D565" t="s">
-        <v>1407</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -13819,7 +13963,7 @@
         <v>1408</v>
       </c>
       <c r="D566" t="s">
-        <v>1408</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -13833,7 +13977,7 @@
         <v>1409</v>
       </c>
       <c r="D567" t="s">
-        <v>1409</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -13847,7 +13991,7 @@
         <v>1410</v>
       </c>
       <c r="D568" t="s">
-        <v>1410</v>
+        <v>912</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -13861,7 +14005,7 @@
         <v>1411</v>
       </c>
       <c r="D569" t="s">
-        <v>1411</v>
+        <v>912</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -13875,7 +14019,7 @@
         <v>1412</v>
       </c>
       <c r="D570" t="s">
-        <v>1412</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -13889,7 +14033,7 @@
         <v>1413</v>
       </c>
       <c r="D571" t="s">
-        <v>1413</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -13903,7 +14047,7 @@
         <v>1414</v>
       </c>
       <c r="D572" t="s">
-        <v>1414</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -13917,7 +14061,7 @@
         <v>1415</v>
       </c>
       <c r="D573" t="s">
-        <v>1415</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -13931,7 +14075,7 @@
         <v>1416</v>
       </c>
       <c r="D574" t="s">
-        <v>1416</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -13945,7 +14089,7 @@
         <v>1009</v>
       </c>
       <c r="D575" t="s">
-        <v>1009</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -13959,7 +14103,7 @@
         <v>1417</v>
       </c>
       <c r="D576" t="s">
-        <v>1417</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -13973,7 +14117,7 @@
         <v>1009</v>
       </c>
       <c r="D577" t="s">
-        <v>1009</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -13987,7 +14131,7 @@
         <v>1418</v>
       </c>
       <c r="D578" t="s">
-        <v>1418</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -14001,7 +14145,7 @@
         <v>1419</v>
       </c>
       <c r="D579" t="s">
-        <v>1419</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -14015,7 +14159,7 @@
         <v>1420</v>
       </c>
       <c r="D580" t="s">
-        <v>1420</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -14029,7 +14173,7 @@
         <v>1421</v>
       </c>
       <c r="D581" t="s">
-        <v>1785</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -14043,7 +14187,7 @@
         <v>1422</v>
       </c>
       <c r="D582" t="s">
-        <v>1786</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -14057,7 +14201,7 @@
         <v>1423</v>
       </c>
       <c r="D583" t="s">
-        <v>1787</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -14071,7 +14215,7 @@
         <v>1109</v>
       </c>
       <c r="D584" t="s">
-        <v>1109</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -14085,7 +14229,7 @@
         <v>1424</v>
       </c>
       <c r="D585" t="s">
-        <v>1424</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -14099,7 +14243,7 @@
         <v>1425</v>
       </c>
       <c r="D586" t="s">
-        <v>1425</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -14113,7 +14257,7 @@
         <v>1426</v>
       </c>
       <c r="D587" t="s">
-        <v>1426</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -14127,7 +14271,7 @@
         <v>1427</v>
       </c>
       <c r="D588" t="s">
-        <v>1427</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -14141,7 +14285,7 @@
         <v>1428</v>
       </c>
       <c r="D589" t="s">
-        <v>1428</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -14155,7 +14299,7 @@
         <v>1429</v>
       </c>
       <c r="D590" t="s">
-        <v>1788</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -14169,7 +14313,7 @@
         <v>1430</v>
       </c>
       <c r="D591" t="s">
-        <v>1430</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -14183,7 +14327,7 @@
         <v>1431</v>
       </c>
       <c r="D592" t="s">
-        <v>1431</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -14197,7 +14341,7 @@
         <v>1432</v>
       </c>
       <c r="D593" t="s">
-        <v>1432</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -14211,7 +14355,7 @@
         <v>1433</v>
       </c>
       <c r="D594" t="s">
-        <v>1433</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -14225,7 +14369,7 @@
         <v>1434</v>
       </c>
       <c r="D595" t="s">
-        <v>1434</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -14239,7 +14383,7 @@
         <v>1435</v>
       </c>
       <c r="D596" t="s">
-        <v>1435</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -14253,7 +14397,7 @@
         <v>1436</v>
       </c>
       <c r="D597" t="s">
-        <v>1789</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -14267,7 +14411,7 @@
         <v>1437</v>
       </c>
       <c r="D598" t="s">
-        <v>1437</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -14281,7 +14425,7 @@
         <v>1438</v>
       </c>
       <c r="D599" t="s">
-        <v>1438</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -14295,7 +14439,7 @@
         <v>1439</v>
       </c>
       <c r="D600" t="s">
-        <v>1439</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -14309,7 +14453,7 @@
         <v>1440</v>
       </c>
       <c r="D601" t="s">
-        <v>1440</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -14323,7 +14467,7 @@
         <v>1441</v>
       </c>
       <c r="D602" t="s">
-        <v>1441</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -14337,7 +14481,7 @@
         <v>1181</v>
       </c>
       <c r="D603" t="s">
-        <v>1181</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -14351,7 +14495,7 @@
         <v>1442</v>
       </c>
       <c r="D604" t="s">
-        <v>1790</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -14365,7 +14509,7 @@
         <v>1443</v>
       </c>
       <c r="D605" t="s">
-        <v>1443</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -14379,7 +14523,7 @@
         <v>1444</v>
       </c>
       <c r="D606" t="s">
-        <v>1444</v>
+        <v>912</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -14393,7 +14537,7 @@
         <v>1124</v>
       </c>
       <c r="D607" t="s">
-        <v>1124</v>
+        <v>912</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -14407,7 +14551,7 @@
         <v>1445</v>
       </c>
       <c r="D608" t="s">
-        <v>1445</v>
+        <v>912</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -14421,7 +14565,7 @@
         <v>942</v>
       </c>
       <c r="D609" t="s">
-        <v>942</v>
+        <v>912</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -14435,7 +14579,7 @@
         <v>1446</v>
       </c>
       <c r="D610" t="s">
-        <v>1446</v>
+        <v>912</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -14449,7 +14593,7 @@
         <v>1447</v>
       </c>
       <c r="D611" t="s">
-        <v>1791</v>
+        <v>912</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -14463,7 +14607,7 @@
         <v>1448</v>
       </c>
       <c r="D612" t="s">
-        <v>1448</v>
+        <v>912</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -14477,7 +14621,7 @@
         <v>1449</v>
       </c>
       <c r="D613" t="s">
-        <v>1792</v>
+        <v>912</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -14491,7 +14635,7 @@
         <v>1450</v>
       </c>
       <c r="D614" t="s">
-        <v>1793</v>
+        <v>912</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -14505,7 +14649,7 @@
         <v>1451</v>
       </c>
       <c r="D615" t="s">
-        <v>1794</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -14519,7 +14663,7 @@
         <v>1452</v>
       </c>
       <c r="D616" t="s">
-        <v>1795</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -14533,7 +14677,7 @@
         <v>1453</v>
       </c>
       <c r="D617" t="s">
-        <v>1453</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -14547,7 +14691,7 @@
         <v>1454</v>
       </c>
       <c r="D618" t="s">
-        <v>1796</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -14561,7 +14705,7 @@
         <v>1455</v>
       </c>
       <c r="D619" t="s">
-        <v>1797</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -14575,7 +14719,7 @@
         <v>1456</v>
       </c>
       <c r="D620" t="s">
-        <v>1456</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -14589,7 +14733,7 @@
         <v>1109</v>
       </c>
       <c r="D621" t="s">
-        <v>1109</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -14603,7 +14747,7 @@
         <v>1109</v>
       </c>
       <c r="D622" t="s">
-        <v>1109</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -14617,7 +14761,7 @@
         <v>1457</v>
       </c>
       <c r="D623" t="s">
-        <v>1457</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -14631,7 +14775,7 @@
         <v>1109</v>
       </c>
       <c r="D624" t="s">
-        <v>1109</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -14645,7 +14789,7 @@
         <v>1458</v>
       </c>
       <c r="D625" t="s">
-        <v>1458</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -14659,7 +14803,7 @@
         <v>1459</v>
       </c>
       <c r="D626" t="s">
-        <v>1459</v>
+        <v>912</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -14673,7 +14817,7 @@
         <v>1460</v>
       </c>
       <c r="D627" t="s">
-        <v>1460</v>
+        <v>912</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -14687,7 +14831,7 @@
         <v>1461</v>
       </c>
       <c r="D628" t="s">
-        <v>1461</v>
+        <v>912</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -14701,7 +14845,7 @@
         <v>1462</v>
       </c>
       <c r="D629" t="s">
-        <v>1462</v>
+        <v>912</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -14715,7 +14859,7 @@
         <v>1463</v>
       </c>
       <c r="D630" t="s">
-        <v>1463</v>
+        <v>912</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -14729,7 +14873,7 @@
         <v>949</v>
       </c>
       <c r="D631" t="s">
-        <v>949</v>
+        <v>912</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -14743,7 +14887,7 @@
         <v>1464</v>
       </c>
       <c r="D632" t="s">
-        <v>1798</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -14757,7 +14901,7 @@
         <v>1465</v>
       </c>
       <c r="D633" t="s">
-        <v>1465</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -14771,7 +14915,7 @@
         <v>1466</v>
       </c>
       <c r="D634" t="s">
-        <v>1466</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -14785,7 +14929,7 @@
         <v>1467</v>
       </c>
       <c r="D635" t="s">
-        <v>1467</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -14799,7 +14943,7 @@
         <v>1468</v>
       </c>
       <c r="D636" t="s">
-        <v>1468</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -14813,7 +14957,7 @@
         <v>1469</v>
       </c>
       <c r="D637" t="s">
-        <v>1469</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -14827,7 +14971,7 @@
         <v>1470</v>
       </c>
       <c r="D638" t="s">
-        <v>1799</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -14841,7 +14985,7 @@
         <v>1471</v>
       </c>
       <c r="D639" t="s">
-        <v>1471</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -14855,7 +14999,7 @@
         <v>1472</v>
       </c>
       <c r="D640" t="s">
-        <v>1800</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -14869,7 +15013,7 @@
         <v>1473</v>
       </c>
       <c r="D641" t="s">
-        <v>1473</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -14883,7 +15027,7 @@
         <v>1474</v>
       </c>
       <c r="D642" t="s">
-        <v>1474</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -14897,7 +15041,7 @@
         <v>1475</v>
       </c>
       <c r="D643" t="s">
-        <v>1475</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -14911,7 +15055,7 @@
         <v>1476</v>
       </c>
       <c r="D644" t="s">
-        <v>1476</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -14925,7 +15069,7 @@
         <v>1477</v>
       </c>
       <c r="D645" t="s">
-        <v>1801</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -14939,7 +15083,7 @@
         <v>1478</v>
       </c>
       <c r="D646" t="s">
-        <v>1478</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -14953,7 +15097,7 @@
         <v>1479</v>
       </c>
       <c r="D647" t="s">
-        <v>1479</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -14967,7 +15111,7 @@
         <v>1480</v>
       </c>
       <c r="D648" t="s">
-        <v>1480</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -14981,7 +15125,7 @@
         <v>1481</v>
       </c>
       <c r="D649" t="s">
-        <v>1481</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -14995,7 +15139,7 @@
         <v>1482</v>
       </c>
       <c r="D650" t="s">
-        <v>1482</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -15009,7 +15153,7 @@
         <v>1483</v>
       </c>
       <c r="D651" t="s">
-        <v>1483</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -15023,7 +15167,7 @@
         <v>1484</v>
       </c>
       <c r="D652" t="s">
-        <v>1484</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -15037,7 +15181,7 @@
         <v>1485</v>
       </c>
       <c r="D653" t="s">
-        <v>1485</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -15051,7 +15195,7 @@
         <v>1009</v>
       </c>
       <c r="D654" t="s">
-        <v>1009</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -15065,7 +15209,7 @@
         <v>970</v>
       </c>
       <c r="D655" t="s">
-        <v>970</v>
+        <v>912</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -15079,7 +15223,7 @@
         <v>1486</v>
       </c>
       <c r="D656" t="s">
-        <v>1486</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -15093,7 +15237,7 @@
         <v>1487</v>
       </c>
       <c r="D657" t="s">
-        <v>1487</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -15107,7 +15251,7 @@
         <v>1488</v>
       </c>
       <c r="D658" t="s">
-        <v>1488</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -15121,7 +15265,7 @@
         <v>1489</v>
       </c>
       <c r="D659" t="s">
-        <v>1489</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -15135,7 +15279,7 @@
         <v>1490</v>
       </c>
       <c r="D660" t="s">
-        <v>1490</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -15149,7 +15293,7 @@
         <v>1491</v>
       </c>
       <c r="D661" t="s">
-        <v>1491</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -15163,7 +15307,7 @@
         <v>1492</v>
       </c>
       <c r="D662" t="s">
-        <v>1802</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -15177,7 +15321,7 @@
         <v>1493</v>
       </c>
       <c r="D663" t="s">
-        <v>1493</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -15191,7 +15335,7 @@
         <v>1494</v>
       </c>
       <c r="D664" t="s">
-        <v>1494</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -15205,7 +15349,7 @@
         <v>1495</v>
       </c>
       <c r="D665" t="s">
-        <v>1495</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -15219,7 +15363,7 @@
         <v>1325</v>
       </c>
       <c r="D666" t="s">
-        <v>1325</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -15233,7 +15377,7 @@
         <v>1496</v>
       </c>
       <c r="D667" t="s">
-        <v>1496</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -15247,7 +15391,7 @@
         <v>1497</v>
       </c>
       <c r="D668" t="s">
-        <v>1497</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -15261,7 +15405,7 @@
         <v>1498</v>
       </c>
       <c r="D669" t="s">
-        <v>1803</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -15275,7 +15419,7 @@
         <v>1499</v>
       </c>
       <c r="D670" t="s">
-        <v>1499</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -15289,7 +15433,7 @@
         <v>1500</v>
       </c>
       <c r="D671" t="s">
-        <v>1804</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -15303,7 +15447,7 @@
         <v>1501</v>
       </c>
       <c r="D672" t="s">
-        <v>1501</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -15317,7 +15461,7 @@
         <v>1502</v>
       </c>
       <c r="D673" t="s">
-        <v>1502</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -15331,7 +15475,7 @@
         <v>1096</v>
       </c>
       <c r="D674" t="s">
-        <v>1096</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -15345,7 +15489,7 @@
         <v>1503</v>
       </c>
       <c r="D675" t="s">
-        <v>1503</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -15359,7 +15503,7 @@
         <v>1504</v>
       </c>
       <c r="D676" t="s">
-        <v>1504</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -15373,7 +15517,7 @@
         <v>1505</v>
       </c>
       <c r="D677" t="s">
-        <v>1505</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -15387,7 +15531,7 @@
         <v>1506</v>
       </c>
       <c r="D678" t="s">
-        <v>1506</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -15401,7 +15545,7 @@
         <v>942</v>
       </c>
       <c r="D679" t="s">
-        <v>942</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -15415,7 +15559,7 @@
         <v>1507</v>
       </c>
       <c r="D680" t="s">
-        <v>1507</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -15429,7 +15573,7 @@
         <v>1508</v>
       </c>
       <c r="D681" t="s">
-        <v>1508</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -15443,7 +15587,7 @@
         <v>1509</v>
       </c>
       <c r="D682" t="s">
-        <v>1509</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -15457,7 +15601,7 @@
         <v>1510</v>
       </c>
       <c r="D683" t="s">
-        <v>1805</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -15471,7 +15615,7 @@
         <v>1511</v>
       </c>
       <c r="D684" t="s">
-        <v>1511</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -15485,7 +15629,7 @@
         <v>1258</v>
       </c>
       <c r="D685" t="s">
-        <v>1258</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -15499,7 +15643,7 @@
         <v>1512</v>
       </c>
       <c r="D686" t="s">
-        <v>1512</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -15513,7 +15657,7 @@
         <v>1513</v>
       </c>
       <c r="D687" t="s">
-        <v>1513</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -15527,7 +15671,7 @@
         <v>1514</v>
       </c>
       <c r="D688" t="s">
-        <v>1514</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -15541,7 +15685,7 @@
         <v>1109</v>
       </c>
       <c r="D689" t="s">
-        <v>1109</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -15555,7 +15699,7 @@
         <v>1515</v>
       </c>
       <c r="D690" t="s">
-        <v>1515</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -15569,7 +15713,7 @@
         <v>1296</v>
       </c>
       <c r="D691" t="s">
-        <v>1296</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -15583,7 +15727,7 @@
         <v>1516</v>
       </c>
       <c r="D692" t="s">
-        <v>1516</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -15597,7 +15741,7 @@
         <v>1517</v>
       </c>
       <c r="D693" t="s">
-        <v>1517</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -15611,7 +15755,7 @@
         <v>1518</v>
       </c>
       <c r="D694" t="s">
-        <v>1806</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -15625,7 +15769,7 @@
         <v>1519</v>
       </c>
       <c r="D695" t="s">
-        <v>1519</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -15639,7 +15783,7 @@
         <v>1520</v>
       </c>
       <c r="D696" t="s">
-        <v>1807</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -15653,7 +15797,7 @@
         <v>1521</v>
       </c>
       <c r="D697" t="s">
-        <v>1521</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -15667,7 +15811,7 @@
         <v>1124</v>
       </c>
       <c r="D698" t="s">
-        <v>1124</v>
+        <v>912</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -15681,7 +15825,7 @@
         <v>1037</v>
       </c>
       <c r="D699" t="s">
-        <v>1037</v>
+        <v>912</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -15695,7 +15839,7 @@
         <v>1522</v>
       </c>
       <c r="D700" t="s">
-        <v>1522</v>
+        <v>912</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -15709,7 +15853,7 @@
         <v>1523</v>
       </c>
       <c r="D701" t="s">
-        <v>1523</v>
+        <v>912</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -15723,7 +15867,7 @@
         <v>1212</v>
       </c>
       <c r="D702" t="s">
-        <v>1212</v>
+        <v>912</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -15737,7 +15881,7 @@
         <v>1524</v>
       </c>
       <c r="D703" t="s">
-        <v>1524</v>
+        <v>912</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -15751,7 +15895,7 @@
         <v>1525</v>
       </c>
       <c r="D704" t="s">
-        <v>1525</v>
+        <v>912</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -15765,7 +15909,7 @@
         <v>1526</v>
       </c>
       <c r="D705" t="s">
-        <v>1526</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -15779,7 +15923,7 @@
         <v>1527</v>
       </c>
       <c r="D706" t="s">
-        <v>1527</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -15793,7 +15937,7 @@
         <v>1528</v>
       </c>
       <c r="D707" t="s">
-        <v>1808</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -15807,7 +15951,7 @@
         <v>1529</v>
       </c>
       <c r="D708" t="s">
-        <v>1529</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -15821,7 +15965,7 @@
         <v>1530</v>
       </c>
       <c r="D709" t="s">
-        <v>1809</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -15835,7 +15979,7 @@
         <v>1531</v>
       </c>
       <c r="D710" t="s">
-        <v>1531</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -15849,7 +15993,7 @@
         <v>1532</v>
       </c>
       <c r="D711" t="s">
-        <v>1532</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -15863,7 +16007,7 @@
         <v>1533</v>
       </c>
       <c r="D712" t="s">
-        <v>1533</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -15877,7 +16021,7 @@
         <v>1534</v>
       </c>
       <c r="D713" t="s">
-        <v>1534</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -15891,7 +16035,7 @@
         <v>1535</v>
       </c>
       <c r="D714" t="s">
-        <v>1535</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -15905,7 +16049,7 @@
         <v>1536</v>
       </c>
       <c r="D715" t="s">
-        <v>1536</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -15919,7 +16063,7 @@
         <v>1537</v>
       </c>
       <c r="D716" t="s">
-        <v>1810</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -15933,7 +16077,7 @@
         <v>1538</v>
       </c>
       <c r="D717" t="s">
-        <v>1538</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -15947,7 +16091,7 @@
         <v>1538</v>
       </c>
       <c r="D718" t="s">
-        <v>1538</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -15961,7 +16105,7 @@
         <v>1539</v>
       </c>
       <c r="D719" t="s">
-        <v>1539</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -15975,7 +16119,7 @@
         <v>1540</v>
       </c>
       <c r="D720" t="s">
-        <v>1540</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -15989,7 +16133,7 @@
         <v>1541</v>
       </c>
       <c r="D721" t="s">
-        <v>1541</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -16003,7 +16147,7 @@
         <v>1542</v>
       </c>
       <c r="D722" t="s">
-        <v>1542</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -16017,7 +16161,7 @@
         <v>1543</v>
       </c>
       <c r="D723" t="s">
-        <v>1543</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -16031,7 +16175,7 @@
         <v>1544</v>
       </c>
       <c r="D724" t="s">
-        <v>1544</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -16045,7 +16189,7 @@
         <v>1545</v>
       </c>
       <c r="D725" t="s">
-        <v>1811</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -16059,7 +16203,7 @@
         <v>1546</v>
       </c>
       <c r="D726" t="s">
-        <v>1546</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -16073,7 +16217,7 @@
         <v>1547</v>
       </c>
       <c r="D727" t="s">
-        <v>1812</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -16087,7 +16231,7 @@
         <v>1548</v>
       </c>
       <c r="D728" t="s">
-        <v>1548</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -16101,7 +16245,7 @@
         <v>1549</v>
       </c>
       <c r="D729" t="s">
-        <v>1813</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -16115,7 +16259,7 @@
         <v>1550</v>
       </c>
       <c r="D730" t="s">
-        <v>1814</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -16129,7 +16273,7 @@
         <v>1551</v>
       </c>
       <c r="D731" t="s">
-        <v>1551</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -16143,7 +16287,7 @@
         <v>1552</v>
       </c>
       <c r="D732" t="s">
-        <v>1815</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -16157,7 +16301,7 @@
         <v>1553</v>
       </c>
       <c r="D733" t="s">
-        <v>1553</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -16171,7 +16315,7 @@
         <v>1554</v>
       </c>
       <c r="D734" t="s">
-        <v>1816</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -16185,7 +16329,7 @@
         <v>1555</v>
       </c>
       <c r="D735" t="s">
-        <v>1817</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -16199,7 +16343,7 @@
         <v>1556</v>
       </c>
       <c r="D736" t="s">
-        <v>1556</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -16213,7 +16357,7 @@
         <v>1557</v>
       </c>
       <c r="D737" t="s">
-        <v>1557</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -16227,7 +16371,7 @@
         <v>1558</v>
       </c>
       <c r="D738" t="s">
-        <v>1818</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -16241,7 +16385,7 @@
         <v>1559</v>
       </c>
       <c r="D739" t="s">
-        <v>1559</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -16255,7 +16399,7 @@
         <v>1560</v>
       </c>
       <c r="D740" t="s">
-        <v>1560</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -16269,7 +16413,7 @@
         <v>1561</v>
       </c>
       <c r="D741" t="s">
-        <v>1561</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -16283,7 +16427,7 @@
         <v>1562</v>
       </c>
       <c r="D742" t="s">
-        <v>1819</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -16297,7 +16441,7 @@
         <v>1563</v>
       </c>
       <c r="D743" t="s">
-        <v>1563</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -16311,7 +16455,7 @@
         <v>997</v>
       </c>
       <c r="D744" t="s">
-        <v>997</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -16325,7 +16469,7 @@
         <v>1564</v>
       </c>
       <c r="D745" t="s">
-        <v>1564</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -16339,7 +16483,7 @@
         <v>1565</v>
       </c>
       <c r="D746" t="s">
-        <v>1565</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -16353,7 +16497,7 @@
         <v>1566</v>
       </c>
       <c r="D747" t="s">
-        <v>1566</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -16367,7 +16511,7 @@
         <v>1567</v>
       </c>
       <c r="D748" t="s">
-        <v>1567</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -16381,7 +16525,7 @@
         <v>1568</v>
       </c>
       <c r="D749" t="s">
-        <v>1568</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -16395,7 +16539,7 @@
         <v>1569</v>
       </c>
       <c r="D750" t="s">
-        <v>1569</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -16409,7 +16553,7 @@
         <v>1570</v>
       </c>
       <c r="D751" t="s">
-        <v>1820</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -16423,7 +16567,7 @@
         <v>1009</v>
       </c>
       <c r="D752" t="s">
-        <v>1009</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -16437,7 +16581,7 @@
         <v>1571</v>
       </c>
       <c r="D753" t="s">
-        <v>1571</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -16451,7 +16595,7 @@
         <v>1572</v>
       </c>
       <c r="D754" t="s">
-        <v>1821</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -16465,7 +16609,7 @@
         <v>1573</v>
       </c>
       <c r="D755" t="s">
-        <v>1822</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -16479,7 +16623,7 @@
         <v>1574</v>
       </c>
       <c r="D756" t="s">
-        <v>1574</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -16493,7 +16637,7 @@
         <v>1124</v>
       </c>
       <c r="D757" t="s">
-        <v>1124</v>
+        <v>912</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -16507,7 +16651,7 @@
         <v>1037</v>
       </c>
       <c r="D758" t="s">
-        <v>1037</v>
+        <v>912</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -16521,7 +16665,7 @@
         <v>1575</v>
       </c>
       <c r="D759" t="s">
-        <v>1575</v>
+        <v>912</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -16535,7 +16679,7 @@
         <v>1576</v>
       </c>
       <c r="D760" t="s">
-        <v>1576</v>
+        <v>912</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -16549,7 +16693,7 @@
         <v>1035</v>
       </c>
       <c r="D761" t="s">
-        <v>1035</v>
+        <v>912</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -16563,7 +16707,7 @@
         <v>1577</v>
       </c>
       <c r="D762" t="s">
-        <v>1577</v>
+        <v>912</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -16577,7 +16721,7 @@
         <v>1578</v>
       </c>
       <c r="D763" t="s">
-        <v>1823</v>
+        <v>912</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -16591,7 +16735,7 @@
         <v>1579</v>
       </c>
       <c r="D764" t="s">
-        <v>1579</v>
+        <v>912</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -16605,7 +16749,7 @@
         <v>1580</v>
       </c>
       <c r="D765" t="s">
-        <v>1580</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -16619,7 +16763,7 @@
         <v>1581</v>
       </c>
       <c r="D766" t="s">
-        <v>1581</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -16633,7 +16777,7 @@
         <v>1582</v>
       </c>
       <c r="D767" t="s">
-        <v>1582</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -16647,7 +16791,7 @@
         <v>1583</v>
       </c>
       <c r="D768" t="s">
-        <v>1583</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -16661,7 +16805,7 @@
         <v>1584</v>
       </c>
       <c r="D769" t="s">
-        <v>1584</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -16675,7 +16819,7 @@
         <v>1585</v>
       </c>
       <c r="D770" t="s">
-        <v>1824</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -16689,7 +16833,7 @@
         <v>1586</v>
       </c>
       <c r="D771" t="s">
-        <v>1586</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -16703,7 +16847,7 @@
         <v>1587</v>
       </c>
       <c r="D772" t="s">
-        <v>1825</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -16717,7 +16861,7 @@
         <v>1588</v>
       </c>
       <c r="D773" t="s">
-        <v>1588</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -16731,7 +16875,7 @@
         <v>970</v>
       </c>
       <c r="D774" t="s">
-        <v>970</v>
+        <v>912</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -16745,7 +16889,7 @@
         <v>1589</v>
       </c>
       <c r="D775" t="s">
-        <v>1589</v>
+        <v>912</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -16759,7 +16903,7 @@
         <v>1590</v>
       </c>
       <c r="D776" t="s">
-        <v>1826</v>
+        <v>912</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -16773,7 +16917,7 @@
         <v>1591</v>
       </c>
       <c r="D777" t="s">
-        <v>1827</v>
+        <v>912</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -16787,7 +16931,7 @@
         <v>1592</v>
       </c>
       <c r="D778" t="s">
-        <v>1592</v>
+        <v>912</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -16801,7 +16945,7 @@
         <v>1593</v>
       </c>
       <c r="D779" t="s">
-        <v>1593</v>
+        <v>912</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -16815,7 +16959,7 @@
         <v>1594</v>
       </c>
       <c r="D780" t="s">
-        <v>1594</v>
+        <v>912</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -16829,7 +16973,7 @@
         <v>1539</v>
       </c>
       <c r="D781" t="s">
-        <v>1539</v>
+        <v>912</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -16843,7 +16987,7 @@
         <v>1595</v>
       </c>
       <c r="D782" t="s">
-        <v>1595</v>
+        <v>912</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -16857,7 +17001,7 @@
         <v>1596</v>
       </c>
       <c r="D783" t="s">
-        <v>1596</v>
+        <v>912</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -16871,7 +17015,7 @@
         <v>1597</v>
       </c>
       <c r="D784" t="s">
-        <v>1597</v>
+        <v>912</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -16885,7 +17029,7 @@
         <v>1598</v>
       </c>
       <c r="D785" t="s">
-        <v>1598</v>
+        <v>912</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -16899,7 +17043,7 @@
         <v>1599</v>
       </c>
       <c r="D786" t="s">
-        <v>1599</v>
+        <v>912</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -16913,7 +17057,7 @@
         <v>1600</v>
       </c>
       <c r="D787" t="s">
-        <v>1828</v>
+        <v>912</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -16927,7 +17071,7 @@
         <v>1601</v>
       </c>
       <c r="D788" t="s">
-        <v>1601</v>
+        <v>912</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -16941,7 +17085,7 @@
         <v>1493</v>
       </c>
       <c r="D789" t="s">
-        <v>1493</v>
+        <v>912</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -16955,7 +17099,7 @@
         <v>1602</v>
       </c>
       <c r="D790" t="s">
-        <v>1829</v>
+        <v>912</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -16969,7 +17113,7 @@
         <v>1603</v>
       </c>
       <c r="D791" t="s">
-        <v>1830</v>
+        <v>912</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -16983,7 +17127,7 @@
         <v>1604</v>
       </c>
       <c r="D792" t="s">
-        <v>1604</v>
+        <v>912</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -16997,7 +17141,7 @@
         <v>949</v>
       </c>
       <c r="D793" t="s">
-        <v>949</v>
+        <v>912</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -17011,7 +17155,7 @@
         <v>1605</v>
       </c>
       <c r="D794" t="s">
-        <v>1831</v>
+        <v>912</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -17025,7 +17169,7 @@
         <v>1606</v>
       </c>
       <c r="D795" t="s">
-        <v>1606</v>
+        <v>912</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -17039,7 +17183,7 @@
         <v>1109</v>
       </c>
       <c r="D796" t="s">
-        <v>1109</v>
+        <v>912</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -17053,7 +17197,7 @@
         <v>1584</v>
       </c>
       <c r="D797" t="s">
-        <v>1584</v>
+        <v>912</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -17067,7 +17211,7 @@
         <v>1607</v>
       </c>
       <c r="D798" t="s">
-        <v>1607</v>
+        <v>912</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -17081,7 +17225,7 @@
         <v>1608</v>
       </c>
       <c r="D799" t="s">
-        <v>1608</v>
+        <v>912</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -17095,7 +17239,7 @@
         <v>1609</v>
       </c>
       <c r="D800" t="s">
-        <v>1609</v>
+        <v>912</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -17109,7 +17253,7 @@
         <v>1009</v>
       </c>
       <c r="D801" t="s">
-        <v>1009</v>
+        <v>912</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -17123,7 +17267,7 @@
         <v>1610</v>
       </c>
       <c r="D802" t="s">
-        <v>1610</v>
+        <v>912</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -17137,7 +17281,7 @@
         <v>1611</v>
       </c>
       <c r="D803" t="s">
-        <v>1611</v>
+        <v>912</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -17151,7 +17295,7 @@
         <v>1612</v>
       </c>
       <c r="D804" t="s">
-        <v>1612</v>
+        <v>912</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -17165,7 +17309,7 @@
         <v>1613</v>
       </c>
       <c r="D805" t="s">
-        <v>1832</v>
+        <v>912</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -17179,7 +17323,7 @@
         <v>986</v>
       </c>
       <c r="D806" t="s">
-        <v>986</v>
+        <v>912</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -17193,7 +17337,7 @@
         <v>1614</v>
       </c>
       <c r="D807" t="s">
-        <v>1833</v>
+        <v>912</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -17207,7 +17351,7 @@
         <v>1615</v>
       </c>
       <c r="D808" t="s">
-        <v>1615</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -17221,7 +17365,7 @@
         <v>1616</v>
       </c>
       <c r="D809" t="s">
-        <v>1616</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -17235,7 +17379,7 @@
         <v>1617</v>
       </c>
       <c r="D810" t="s">
-        <v>1617</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -17249,7 +17393,7 @@
         <v>1618</v>
       </c>
       <c r="D811" t="s">
-        <v>1618</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -17263,7 +17407,7 @@
         <v>1619</v>
       </c>
       <c r="D812" t="s">
-        <v>1619</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -17277,7 +17421,7 @@
         <v>1620</v>
       </c>
       <c r="D813" t="s">
-        <v>1834</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -17291,7 +17435,7 @@
         <v>1621</v>
       </c>
       <c r="D814" t="s">
-        <v>1621</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -17305,7 +17449,7 @@
         <v>1622</v>
       </c>
       <c r="D815" t="s">
-        <v>1835</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -17319,7 +17463,7 @@
         <v>1623</v>
       </c>
       <c r="D816" t="s">
-        <v>1623</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -17333,7 +17477,7 @@
         <v>1624</v>
       </c>
       <c r="D817" t="s">
-        <v>1624</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -17347,7 +17491,7 @@
         <v>1625</v>
       </c>
       <c r="D818" t="s">
-        <v>1625</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -17361,7 +17505,7 @@
         <v>1626</v>
       </c>
       <c r="D819" t="s">
-        <v>1626</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -17375,7 +17519,7 @@
         <v>1627</v>
       </c>
       <c r="D820" t="s">
-        <v>1627</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -17389,7 +17533,7 @@
         <v>1628</v>
       </c>
       <c r="D821" t="s">
-        <v>1628</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -17403,7 +17547,7 @@
         <v>1629</v>
       </c>
       <c r="D822" t="s">
-        <v>1629</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -17417,7 +17561,7 @@
         <v>1630</v>
       </c>
       <c r="D823" t="s">
-        <v>1630</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -17431,7 +17575,7 @@
         <v>1631</v>
       </c>
       <c r="D824" t="s">
-        <v>1631</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -17445,7 +17589,7 @@
         <v>1632</v>
       </c>
       <c r="D825" t="s">
-        <v>1836</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -17459,7 +17603,7 @@
         <v>1633</v>
       </c>
       <c r="D826" t="s">
-        <v>1633</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -17473,7 +17617,7 @@
         <v>1634</v>
       </c>
       <c r="D827" t="s">
-        <v>1634</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -17487,7 +17631,7 @@
         <v>1635</v>
       </c>
       <c r="D828" t="s">
-        <v>1635</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -17501,7 +17645,7 @@
         <v>1636</v>
       </c>
       <c r="D829" t="s">
-        <v>1636</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -17515,7 +17659,7 @@
         <v>1325</v>
       </c>
       <c r="D830" t="s">
-        <v>1325</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -17529,7 +17673,7 @@
         <v>1637</v>
       </c>
       <c r="D831" t="s">
-        <v>1637</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -17543,7 +17687,7 @@
         <v>1638</v>
       </c>
       <c r="D832" t="s">
-        <v>1638</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -17557,7 +17701,7 @@
         <v>1009</v>
       </c>
       <c r="D833" t="s">
-        <v>1009</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -17571,7 +17715,7 @@
         <v>1639</v>
       </c>
       <c r="D834" t="s">
-        <v>1639</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -17585,7 +17729,7 @@
         <v>1640</v>
       </c>
       <c r="D835" t="s">
-        <v>1837</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -17599,7 +17743,7 @@
         <v>1641</v>
       </c>
       <c r="D836" t="s">
-        <v>1641</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -17613,7 +17757,7 @@
         <v>949</v>
       </c>
       <c r="D837" t="s">
-        <v>949</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -17627,7 +17771,7 @@
         <v>1642</v>
       </c>
       <c r="D838" t="s">
-        <v>1642</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -17641,7 +17785,7 @@
         <v>1643</v>
       </c>
       <c r="D839" t="s">
-        <v>1838</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -17655,7 +17799,7 @@
         <v>1644</v>
       </c>
       <c r="D840" t="s">
-        <v>1644</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -17669,7 +17813,7 @@
         <v>1645</v>
       </c>
       <c r="D841" t="s">
-        <v>1645</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -17683,7 +17827,7 @@
         <v>1646</v>
       </c>
       <c r="D842" t="s">
-        <v>1646</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -17697,7 +17841,7 @@
         <v>1137</v>
       </c>
       <c r="D843" t="s">
-        <v>1137</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -17711,7 +17855,7 @@
         <v>1647</v>
       </c>
       <c r="D844" t="s">
-        <v>1839</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -17725,7 +17869,7 @@
         <v>1648</v>
       </c>
       <c r="D845" t="s">
-        <v>1648</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -17739,7 +17883,7 @@
         <v>1649</v>
       </c>
       <c r="D846" t="s">
-        <v>1840</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -17753,7 +17897,7 @@
         <v>1650</v>
       </c>
       <c r="D847" t="s">
-        <v>1650</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -17767,7 +17911,7 @@
         <v>928</v>
       </c>
       <c r="D848" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -17781,7 +17925,7 @@
         <v>1651</v>
       </c>
       <c r="D849" t="s">
-        <v>1651</v>
+        <v>912</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -17795,7 +17939,7 @@
         <v>1652</v>
       </c>
       <c r="D850" t="s">
-        <v>1652</v>
+        <v>912</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -17809,7 +17953,7 @@
         <v>1653</v>
       </c>
       <c r="D851" t="s">
-        <v>1841</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -17823,7 +17967,7 @@
         <v>1654</v>
       </c>
       <c r="D852" t="s">
-        <v>1842</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -17837,7 +17981,7 @@
         <v>1655</v>
       </c>
       <c r="D853" t="s">
-        <v>1655</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -17851,7 +17995,7 @@
         <v>1656</v>
       </c>
       <c r="D854" t="s">
-        <v>1656</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -17865,7 +18009,7 @@
         <v>1657</v>
       </c>
       <c r="D855" t="s">
-        <v>1657</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -17879,7 +18023,7 @@
         <v>1658</v>
       </c>
       <c r="D856" t="s">
-        <v>1658</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -17893,7 +18037,7 @@
         <v>1659</v>
       </c>
       <c r="D857" t="s">
-        <v>1843</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -17907,7 +18051,7 @@
         <v>1660</v>
       </c>
       <c r="D858" t="s">
-        <v>1660</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -17921,7 +18065,7 @@
         <v>1661</v>
       </c>
       <c r="D859" t="s">
-        <v>1844</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -17935,7 +18079,7 @@
         <v>1662</v>
       </c>
       <c r="D860" t="s">
-        <v>1662</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -17949,7 +18093,7 @@
         <v>1663</v>
       </c>
       <c r="D861" t="s">
-        <v>1663</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -17963,7 +18107,7 @@
         <v>1664</v>
       </c>
       <c r="D862" t="s">
-        <v>1664</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -17977,7 +18121,7 @@
         <v>1665</v>
       </c>
       <c r="D863" t="s">
-        <v>1665</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -17991,7 +18135,7 @@
         <v>1666</v>
       </c>
       <c r="D864" t="s">
-        <v>1666</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -18005,7 +18149,7 @@
         <v>1667</v>
       </c>
       <c r="D865" t="s">
-        <v>1845</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -18019,7 +18163,7 @@
         <v>1668</v>
       </c>
       <c r="D866" t="s">
-        <v>1668</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -18033,7 +18177,7 @@
         <v>1669</v>
       </c>
       <c r="D867" t="s">
-        <v>1846</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -18047,7 +18191,7 @@
         <v>1670</v>
       </c>
       <c r="D868" t="s">
-        <v>1670</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -18061,7 +18205,7 @@
         <v>1009</v>
       </c>
       <c r="D869" t="s">
-        <v>1009</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -18075,7 +18219,7 @@
         <v>1581</v>
       </c>
       <c r="D870" t="s">
-        <v>1581</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -18089,7 +18233,7 @@
         <v>1671</v>
       </c>
       <c r="D871" t="s">
-        <v>1671</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -18103,7 +18247,7 @@
         <v>1672</v>
       </c>
       <c r="D872" t="s">
-        <v>1672</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -18117,7 +18261,7 @@
         <v>1673</v>
       </c>
       <c r="D873" t="s">
-        <v>1673</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -18131,7 +18275,7 @@
         <v>1674</v>
       </c>
       <c r="D874" t="s">
-        <v>1674</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -18145,7 +18289,7 @@
         <v>1675</v>
       </c>
       <c r="D875" t="s">
-        <v>1675</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -18159,7 +18303,7 @@
         <v>1676</v>
       </c>
       <c r="D876" t="s">
-        <v>1676</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -18173,7 +18317,7 @@
         <v>942</v>
       </c>
       <c r="D877" t="s">
-        <v>942</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -18187,7 +18331,7 @@
         <v>1677</v>
       </c>
       <c r="D878" t="s">
-        <v>1677</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -18201,7 +18345,7 @@
         <v>1678</v>
       </c>
       <c r="D879" t="s">
-        <v>1678</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -18215,7 +18359,7 @@
         <v>1679</v>
       </c>
       <c r="D880" t="s">
-        <v>1679</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -18229,7 +18373,7 @@
         <v>1680</v>
       </c>
       <c r="D881" t="s">
-        <v>1847</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -18243,7 +18387,7 @@
         <v>1009</v>
       </c>
       <c r="D882" t="s">
-        <v>1009</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -18257,7 +18401,7 @@
         <v>1681</v>
       </c>
       <c r="D883" t="s">
-        <v>1681</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -18271,7 +18415,7 @@
         <v>1682</v>
       </c>
       <c r="D884" t="s">
-        <v>1682</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -18285,7 +18429,7 @@
         <v>1683</v>
       </c>
       <c r="D885" t="s">
-        <v>1683</v>
+        <v>912</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -18299,7 +18443,7 @@
         <v>1684</v>
       </c>
       <c r="D886" t="s">
-        <v>1684</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -18313,7 +18457,7 @@
         <v>1685</v>
       </c>
       <c r="D887" t="s">
-        <v>1685</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -18327,7 +18471,7 @@
         <v>1686</v>
       </c>
       <c r="D888" t="s">
-        <v>1686</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -18341,7 +18485,7 @@
         <v>1687</v>
       </c>
       <c r="D889" t="s">
-        <v>1687</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -18355,7 +18499,7 @@
         <v>1688</v>
       </c>
       <c r="D890" t="s">
-        <v>1688</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -18369,7 +18513,7 @@
         <v>1689</v>
       </c>
       <c r="D891" t="s">
-        <v>1848</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -18383,7 +18527,7 @@
         <v>1690</v>
       </c>
       <c r="D892" t="s">
-        <v>1690</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -18397,7 +18541,7 @@
         <v>1629</v>
       </c>
       <c r="D893" t="s">
-        <v>1629</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -18411,7 +18555,7 @@
         <v>1691</v>
       </c>
       <c r="D894" t="s">
-        <v>1691</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
